--- a/docs/multiCrit.xlsx
+++ b/docs/multiCrit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2D8291-BF05-4B68-A7F5-F233A22D813D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A495341-C845-4776-AEF2-CF300677BE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="2208" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -638,7 +638,7 @@
   <dimension ref="A3:P33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -692,16 +692,16 @@
         <v>992</v>
       </c>
       <c r="I4">
-        <v>2.3594979999999901E-2</v>
+        <v>2.35684791666666E-2</v>
       </c>
       <c r="J4">
-        <v>8.6199999999999992</v>
+        <v>8.6875</v>
       </c>
       <c r="K4">
-        <v>43.097999999999999</v>
+        <v>43.097916666666599</v>
       </c>
       <c r="L4">
-        <v>919.76</v>
+        <v>919.75</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -716,16 +716,16 @@
         <v>1285</v>
       </c>
       <c r="I5">
-        <v>0.13256228</v>
+        <v>0.13216783333333301</v>
       </c>
       <c r="J5">
-        <v>42.16</v>
+        <v>42.5</v>
       </c>
       <c r="K5">
-        <v>43.97</v>
+        <v>43.983333333333299</v>
       </c>
       <c r="L5">
-        <v>14516.48</v>
+        <v>14516.75</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -740,16 +740,16 @@
         <v>895</v>
       </c>
       <c r="I6">
-        <v>3.8341119999999999E-2</v>
+        <v>3.80987083333333E-2</v>
       </c>
       <c r="J6">
-        <v>11.88</v>
+        <v>12</v>
       </c>
       <c r="K6">
-        <v>43.872</v>
+        <v>43.877083333333303</v>
       </c>
       <c r="L6">
-        <v>3538.32</v>
+        <v>3539.5833333333298</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -763,16 +763,16 @@
         <v>823</v>
       </c>
       <c r="I7">
-        <v>4.0844760000000001E-2</v>
+        <v>4.07740625E-2</v>
       </c>
       <c r="J7">
-        <v>12.98</v>
+        <v>13.1041666666666</v>
       </c>
       <c r="K7">
-        <v>43.845999999999997</v>
+        <v>43.860416666666602</v>
       </c>
       <c r="L7">
-        <v>1744</v>
+        <v>1743.5833333333301</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -786,16 +786,16 @@
         <v>328</v>
       </c>
       <c r="I8">
-        <v>7.5660359999999996E-2</v>
+        <v>7.5310979166666597E-2</v>
       </c>
       <c r="J8">
-        <v>23.24</v>
+        <v>23.4375</v>
       </c>
       <c r="K8">
-        <v>45.08</v>
+        <v>45.079166666666602</v>
       </c>
       <c r="L8">
-        <v>8366.48</v>
+        <v>8367.6666666666606</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -809,16 +809,16 @@
         <v>919</v>
       </c>
       <c r="I9">
-        <v>0.71211911999999999</v>
+        <v>0.69112268750000005</v>
       </c>
       <c r="J9">
-        <v>85.42</v>
+        <v>70.9791666666666</v>
       </c>
       <c r="K9">
-        <v>44.751999999999903</v>
+        <v>44.768749999999997</v>
       </c>
       <c r="L9">
-        <v>27175.040000000001</v>
+        <v>27175.166666666599</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -832,16 +832,16 @@
         <v>727</v>
       </c>
       <c r="I10">
-        <v>0.59269896</v>
+        <v>0.594645166666666</v>
       </c>
       <c r="J10">
-        <v>54.98</v>
+        <v>54.7708333333333</v>
       </c>
       <c r="K10">
-        <v>44.71</v>
+        <v>44.725000000000001</v>
       </c>
       <c r="L10">
-        <v>48230.400000000001</v>
+        <v>48229.416666666599</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -856,16 +856,16 @@
         <v>775</v>
       </c>
       <c r="I11">
-        <v>0.81346921999999999</v>
+        <v>0.79911039583333299</v>
       </c>
       <c r="J11">
-        <v>112.9</v>
+        <v>100.6875</v>
       </c>
       <c r="K11">
-        <v>45.137999999999998</v>
+        <v>45.154166666666598</v>
       </c>
       <c r="L11">
-        <v>28424.16</v>
+        <v>28424</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -880,16 +880,16 @@
         <v>968</v>
       </c>
       <c r="I12">
-        <v>1.6098534799999999</v>
+        <v>1.60736970833333</v>
       </c>
       <c r="J12">
-        <v>138.34</v>
+        <v>138.145833333333</v>
       </c>
       <c r="K12">
-        <v>46.073999999999998</v>
+        <v>46.118749999999999</v>
       </c>
       <c r="L12">
-        <v>29218.799999999999</v>
+        <v>29222.5</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -904,16 +904,16 @@
         <v>632</v>
       </c>
       <c r="I13">
-        <v>0.79966789999999999</v>
+        <v>0.80005131249999994</v>
       </c>
       <c r="J13">
-        <v>73.16</v>
+        <v>72.9583333333333</v>
       </c>
       <c r="K13">
-        <v>44.79</v>
+        <v>44.8</v>
       </c>
       <c r="L13">
-        <v>27873.599999999999</v>
+        <v>27873.5</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -928,16 +928,16 @@
         <v>421</v>
       </c>
       <c r="I14">
-        <v>6.9132100000000002E-2</v>
+        <v>6.8859124999999993E-2</v>
       </c>
       <c r="J14">
-        <v>20</v>
+        <v>20.0833333333333</v>
       </c>
       <c r="K14">
-        <v>45.158000000000001</v>
+        <v>45.152083333333302</v>
       </c>
       <c r="L14">
-        <v>6094.72</v>
+        <v>6093.0833333333303</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -952,16 +952,16 @@
         <v>421</v>
       </c>
       <c r="I15">
-        <v>0.43816164000000002</v>
+        <v>0.43875124999999998</v>
       </c>
       <c r="J15">
-        <v>53.94</v>
+        <v>53.875</v>
       </c>
       <c r="K15">
-        <v>45.188000000000002</v>
+        <v>45.212499999999999</v>
       </c>
       <c r="L15">
-        <v>14140.56</v>
+        <v>14140.166666666601</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -976,16 +976,16 @@
         <v>561</v>
       </c>
       <c r="I16">
-        <v>0.84748168000000001</v>
+        <v>0.84606679166666598</v>
       </c>
       <c r="J16">
-        <v>78.239999999999995</v>
+        <v>78.2708333333333</v>
       </c>
       <c r="K16">
-        <v>45.613999999999997</v>
+        <v>45.643749999999997</v>
       </c>
       <c r="L16">
-        <v>23026.880000000001</v>
+        <v>23025.583333333299</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1000,16 +1000,16 @@
         <v>775</v>
       </c>
       <c r="I17">
-        <v>2.868534E-2</v>
+        <v>2.87158125E-2</v>
       </c>
       <c r="J17">
-        <v>10.86</v>
+        <v>10.9166666666666</v>
       </c>
       <c r="K17">
-        <v>43.777999999999999</v>
+        <v>43.777083333333302</v>
       </c>
       <c r="L17">
-        <v>2041.68</v>
+        <v>2042.3333333333301</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2111,55 +2111,55 @@
       </c>
       <c r="C24" s="3">
         <f>-VLOOKUP(C$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A24,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.1089673000000001</v>
+        <v>-0.10859935416666641</v>
       </c>
       <c r="D24" s="3">
         <f>-VLOOKUP(D$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A24,Data!$G$4:$L$17,3,0)</f>
-        <v>-1.4746140000000098E-2</v>
+        <v>-1.45302291666667E-2</v>
       </c>
       <c r="E24" s="3">
         <f>-VLOOKUP(E$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A24,Data!$G$4:$L$17,3,0)</f>
-        <v>-1.72497800000001E-2</v>
+        <v>-1.7205583333333399E-2</v>
       </c>
       <c r="F24" s="3">
         <f>-VLOOKUP(F$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A24,Data!$G$4:$L$17,3,0)</f>
-        <v>-5.2065380000000092E-2</v>
+        <v>-5.1742499999999997E-2</v>
       </c>
       <c r="G24" s="3">
         <f>-VLOOKUP(G$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A24,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.68852414000000006</v>
+        <v>-0.66755420833333345</v>
       </c>
       <c r="H24" s="3">
         <f>-VLOOKUP(H$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A24,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.56910398000000006</v>
+        <v>-0.5710766874999994</v>
       </c>
       <c r="I24" s="3">
         <f>-VLOOKUP(I$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A24,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.78987424000000006</v>
+        <v>-0.77554191666666639</v>
       </c>
       <c r="J24" s="3">
         <f>-VLOOKUP(J$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A24,Data!$G$4:$L$17,3,0)</f>
-        <v>-1.5862585</v>
+        <v>-1.5838012291666634</v>
       </c>
       <c r="K24" s="3">
         <f>-VLOOKUP(K$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A24,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.77607292000000005</v>
+        <v>-0.77648283333333334</v>
       </c>
       <c r="L24" s="3">
         <f>-VLOOKUP(L$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A24,Data!$G$4:$L$17,3,0)</f>
-        <v>-4.5537120000000098E-2</v>
+        <v>-4.5290645833333393E-2</v>
       </c>
       <c r="M24" s="3">
         <f>-VLOOKUP(M$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A24,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.41456666000000014</v>
+        <v>-0.41518277083333338</v>
       </c>
       <c r="N24" s="3">
         <f>-VLOOKUP(N$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A24,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.82388670000000008</v>
+        <v>-0.82249831249999938</v>
       </c>
       <c r="O24" s="3">
         <f>-VLOOKUP(O$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A24,Data!$G$4:$L$17,3,0)</f>
-        <v>-5.0903600000000992E-3</v>
+        <v>-5.1473333333333995E-3</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B25" s="3">
         <f>-VLOOKUP(B$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A25,Data!$G$4:$L$17,3,0)</f>
-        <v>0.1089673000000001</v>
+        <v>0.10859935416666641</v>
       </c>
       <c r="C25" s="3">
         <f>-VLOOKUP(C$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A25,Data!$G$4:$L$17,3,0)</f>
@@ -2176,51 +2176,51 @@
       </c>
       <c r="D25" s="3">
         <f>-VLOOKUP(D$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A25,Data!$G$4:$L$17,3,0)</f>
-        <v>9.4221159999999998E-2</v>
+        <v>9.4069124999999712E-2</v>
       </c>
       <c r="E25" s="3">
         <f>-VLOOKUP(E$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A25,Data!$G$4:$L$17,3,0)</f>
-        <v>9.1717519999999997E-2</v>
+        <v>9.1393770833333013E-2</v>
       </c>
       <c r="F25" s="3">
         <f>-VLOOKUP(F$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A25,Data!$G$4:$L$17,3,0)</f>
-        <v>5.6901920000000009E-2</v>
+        <v>5.6856854166666415E-2</v>
       </c>
       <c r="G25" s="3">
         <f>-VLOOKUP(G$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A25,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.57955683999999996</v>
+        <v>-0.55895485416666701</v>
       </c>
       <c r="H25" s="3">
         <f>-VLOOKUP(H$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A25,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.46013667999999996</v>
+        <v>-0.46247733333333296</v>
       </c>
       <c r="I25" s="3">
         <f>-VLOOKUP(I$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A25,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.68090693999999996</v>
+        <v>-0.66694256249999995</v>
       </c>
       <c r="J25" s="3">
         <f>-VLOOKUP(J$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A25,Data!$G$4:$L$17,3,0)</f>
-        <v>-1.4772912</v>
+        <v>-1.4752018749999971</v>
       </c>
       <c r="K25" s="3">
         <f>-VLOOKUP(K$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A25,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.66710561999999995</v>
+        <v>-0.6678834791666669</v>
       </c>
       <c r="L25" s="3">
         <f>-VLOOKUP(L$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A25,Data!$G$4:$L$17,3,0)</f>
-        <v>6.3430180000000003E-2</v>
+        <v>6.3308708333333019E-2</v>
       </c>
       <c r="M25" s="3">
         <f>-VLOOKUP(M$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A25,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.30559935999999999</v>
+        <v>-0.306583416666667</v>
       </c>
       <c r="N25" s="3">
         <f>-VLOOKUP(N$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A25,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.71491939999999998</v>
+        <v>-0.71389895833333294</v>
       </c>
       <c r="O25" s="3">
         <f>-VLOOKUP(O$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A25,Data!$G$4:$L$17,3,0)</f>
-        <v>0.10387694</v>
+        <v>0.10345202083333302</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2229,11 +2229,11 @@
       </c>
       <c r="B26" s="3">
         <f>-VLOOKUP(B$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A26,Data!$G$4:$L$17,3,0)</f>
-        <v>1.4746140000000098E-2</v>
+        <v>1.45302291666667E-2</v>
       </c>
       <c r="C26" s="3">
         <f>-VLOOKUP(C$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A26,Data!$G$4:$L$17,3,0)</f>
-        <v>-9.4221159999999998E-2</v>
+        <v>-9.4069124999999712E-2</v>
       </c>
       <c r="D26" s="3">
         <f>-VLOOKUP(D$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A26,Data!$G$4:$L$17,3,0)</f>
@@ -2241,47 +2241,47 @@
       </c>
       <c r="E26" s="3">
         <f>-VLOOKUP(E$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A26,Data!$G$4:$L$17,3,0)</f>
-        <v>-2.5036400000000014E-3</v>
+        <v>-2.6753541666666991E-3</v>
       </c>
       <c r="F26" s="3">
         <f>-VLOOKUP(F$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A26,Data!$G$4:$L$17,3,0)</f>
-        <v>-3.7319239999999997E-2</v>
+        <v>-3.7212270833333297E-2</v>
       </c>
       <c r="G26" s="3">
         <f>-VLOOKUP(G$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A26,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.67377799999999999</v>
+        <v>-0.65302397916666677</v>
       </c>
       <c r="H26" s="3">
         <f>-VLOOKUP(H$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A26,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.55435783999999999</v>
+        <v>-0.55654645833333272</v>
       </c>
       <c r="I26" s="3">
         <f>-VLOOKUP(I$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A26,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.77512809999999999</v>
+        <v>-0.7610116874999997</v>
       </c>
       <c r="J26" s="3">
         <f>-VLOOKUP(J$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A26,Data!$G$4:$L$17,3,0)</f>
-        <v>-1.5715123600000001</v>
+        <v>-1.5692709999999968</v>
       </c>
       <c r="K26" s="3">
         <f>-VLOOKUP(K$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A26,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.76132677999999998</v>
+        <v>-0.76195260416666666</v>
       </c>
       <c r="L26" s="3">
         <f>-VLOOKUP(L$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A26,Data!$G$4:$L$17,3,0)</f>
-        <v>-3.0790980000000003E-2</v>
+        <v>-3.0760416666666693E-2</v>
       </c>
       <c r="M26" s="3">
         <f>-VLOOKUP(M$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A26,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.39982052000000001</v>
+        <v>-0.40065254166666669</v>
       </c>
       <c r="N26" s="3">
         <f>-VLOOKUP(N$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A26,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.80914056000000001</v>
+        <v>-0.8079680833333327</v>
       </c>
       <c r="O26" s="3">
         <f>-VLOOKUP(O$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A26,Data!$G$4:$L$17,3,0)</f>
-        <v>9.6557799999999992E-3</v>
+        <v>9.3828958333333004E-3</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2290,15 +2290,15 @@
       </c>
       <c r="B27" s="3">
         <f>-VLOOKUP(B$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A27,Data!$G$4:$L$17,3,0)</f>
-        <v>1.72497800000001E-2</v>
+        <v>1.7205583333333399E-2</v>
       </c>
       <c r="C27" s="3">
         <f>-VLOOKUP(C$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A27,Data!$G$4:$L$17,3,0)</f>
-        <v>-9.1717519999999997E-2</v>
+        <v>-9.1393770833333013E-2</v>
       </c>
       <c r="D27" s="3">
         <f>-VLOOKUP(D$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A27,Data!$G$4:$L$17,3,0)</f>
-        <v>2.5036400000000014E-3</v>
+        <v>2.6753541666666991E-3</v>
       </c>
       <c r="E27" s="3">
         <f>-VLOOKUP(E$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A27,Data!$G$4:$L$17,3,0)</f>
@@ -2306,43 +2306,43 @@
       </c>
       <c r="F27" s="3">
         <f>-VLOOKUP(F$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A27,Data!$G$4:$L$17,3,0)</f>
-        <v>-3.4815599999999995E-2</v>
+        <v>-3.4536916666666598E-2</v>
       </c>
       <c r="G27" s="3">
         <f>-VLOOKUP(G$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A27,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.67127435999999996</v>
+        <v>-0.65034862500000001</v>
       </c>
       <c r="H27" s="3">
         <f>-VLOOKUP(H$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A27,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.55185419999999996</v>
+        <v>-0.55387110416666596</v>
       </c>
       <c r="I27" s="3">
         <f>-VLOOKUP(I$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A27,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.77262445999999996</v>
+        <v>-0.75833633333333295</v>
       </c>
       <c r="J27" s="3">
         <f>-VLOOKUP(J$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A27,Data!$G$4:$L$17,3,0)</f>
-        <v>-1.56900872</v>
+        <v>-1.5665956458333301</v>
       </c>
       <c r="K27" s="3">
         <f>-VLOOKUP(K$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A27,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.75882313999999995</v>
+        <v>-0.7592772499999999</v>
       </c>
       <c r="L27" s="3">
         <f>-VLOOKUP(L$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A27,Data!$G$4:$L$17,3,0)</f>
-        <v>-2.8287340000000001E-2</v>
+        <v>-2.8085062499999994E-2</v>
       </c>
       <c r="M27" s="3">
         <f>-VLOOKUP(M$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A27,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.39731688000000004</v>
+        <v>-0.3979771875</v>
       </c>
       <c r="N27" s="3">
         <f>-VLOOKUP(N$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A27,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.80663691999999998</v>
+        <v>-0.80529272916666594</v>
       </c>
       <c r="O27" s="3">
         <f>-VLOOKUP(O$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A27,Data!$G$4:$L$17,3,0)</f>
-        <v>1.2159420000000001E-2</v>
+        <v>1.205825E-2</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2351,19 +2351,19 @@
       </c>
       <c r="B28" s="3">
         <f>-VLOOKUP(B$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A28,Data!$G$4:$L$17,3,0)</f>
-        <v>5.2065380000000092E-2</v>
+        <v>5.1742499999999997E-2</v>
       </c>
       <c r="C28" s="3">
         <f>-VLOOKUP(C$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A28,Data!$G$4:$L$17,3,0)</f>
-        <v>-5.6901920000000009E-2</v>
+        <v>-5.6856854166666415E-2</v>
       </c>
       <c r="D28" s="3">
         <f>-VLOOKUP(D$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A28,Data!$G$4:$L$17,3,0)</f>
-        <v>3.7319239999999997E-2</v>
+        <v>3.7212270833333297E-2</v>
       </c>
       <c r="E28" s="3">
         <f>-VLOOKUP(E$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A28,Data!$G$4:$L$17,3,0)</f>
-        <v>3.4815599999999995E-2</v>
+        <v>3.4536916666666598E-2</v>
       </c>
       <c r="F28" s="3">
         <f>-VLOOKUP(F$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A28,Data!$G$4:$L$17,3,0)</f>
@@ -2371,39 +2371,39 @@
       </c>
       <c r="G28" s="3">
         <f>-VLOOKUP(G$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A28,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.63645876000000001</v>
+        <v>-0.61581170833333343</v>
       </c>
       <c r="H28" s="3">
         <f>-VLOOKUP(H$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A28,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.51703860000000001</v>
+        <v>-0.51933418749999938</v>
       </c>
       <c r="I28" s="3">
         <f>-VLOOKUP(I$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A28,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.73780886000000001</v>
+        <v>-0.72379941666666636</v>
       </c>
       <c r="J28" s="3">
         <f>-VLOOKUP(J$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A28,Data!$G$4:$L$17,3,0)</f>
-        <v>-1.5341931199999999</v>
+        <v>-1.5320587291666634</v>
       </c>
       <c r="K28" s="3">
         <f>-VLOOKUP(K$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A28,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.72400754</v>
+        <v>-0.72474033333333332</v>
       </c>
       <c r="L28" s="3">
         <f>-VLOOKUP(L$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A28,Data!$G$4:$L$17,3,0)</f>
-        <v>6.5282599999999941E-3</v>
+        <v>6.4518541666666041E-3</v>
       </c>
       <c r="M28" s="3">
         <f>-VLOOKUP(M$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A28,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.36250128000000004</v>
+        <v>-0.36344027083333341</v>
       </c>
       <c r="N28" s="3">
         <f>-VLOOKUP(N$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A28,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.77182132000000003</v>
+        <v>-0.77075581249999936</v>
       </c>
       <c r="O28" s="3">
         <f>-VLOOKUP(O$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A28,Data!$G$4:$L$17,3,0)</f>
-        <v>4.6975019999999992E-2</v>
+        <v>4.6595166666666597E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2412,23 +2412,23 @@
       </c>
       <c r="B29" s="3">
         <f>-VLOOKUP(B$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A29,Data!$G$4:$L$17,3,0)</f>
-        <v>0.68852414000000006</v>
+        <v>0.66755420833333345</v>
       </c>
       <c r="C29" s="3">
         <f>-VLOOKUP(C$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A29,Data!$G$4:$L$17,3,0)</f>
-        <v>0.57955683999999996</v>
+        <v>0.55895485416666701</v>
       </c>
       <c r="D29" s="3">
         <f>-VLOOKUP(D$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A29,Data!$G$4:$L$17,3,0)</f>
-        <v>0.67377799999999999</v>
+        <v>0.65302397916666677</v>
       </c>
       <c r="E29" s="3">
         <f>-VLOOKUP(E$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A29,Data!$G$4:$L$17,3,0)</f>
-        <v>0.67127435999999996</v>
+        <v>0.65034862500000001</v>
       </c>
       <c r="F29" s="3">
         <f>-VLOOKUP(F$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A29,Data!$G$4:$L$17,3,0)</f>
-        <v>0.63645876000000001</v>
+        <v>0.61581170833333343</v>
       </c>
       <c r="G29" s="3">
         <f>-VLOOKUP(G$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A29,Data!$G$4:$L$17,3,0)</f>
@@ -2436,35 +2436,35 @@
       </c>
       <c r="H29" s="3">
         <f>-VLOOKUP(H$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A29,Data!$G$4:$L$17,3,0)</f>
-        <v>0.11942016</v>
+        <v>9.6477520833334052E-2</v>
       </c>
       <c r="I29" s="3">
         <f>-VLOOKUP(I$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A29,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.1013501</v>
+        <v>-0.10798770833333293</v>
       </c>
       <c r="J29" s="3">
         <f>-VLOOKUP(J$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A29,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.89773435999999995</v>
+        <v>-0.91624702083332998</v>
       </c>
       <c r="K29" s="3">
         <f>-VLOOKUP(K$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A29,Data!$G$4:$L$17,3,0)</f>
-        <v>-8.7548779999999993E-2</v>
+        <v>-0.10892862499999989</v>
       </c>
       <c r="L29" s="3">
         <f>-VLOOKUP(L$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A29,Data!$G$4:$L$17,3,0)</f>
-        <v>0.64298701999999996</v>
+        <v>0.62226356250000003</v>
       </c>
       <c r="M29" s="3">
         <f>-VLOOKUP(M$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A29,Data!$G$4:$L$17,3,0)</f>
-        <v>0.27395747999999998</v>
+        <v>0.25237143750000007</v>
       </c>
       <c r="N29" s="3">
         <f>-VLOOKUP(N$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A29,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.13536256000000002</v>
+        <v>-0.15494410416666593</v>
       </c>
       <c r="O29" s="3">
         <f>-VLOOKUP(O$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A29,Data!$G$4:$L$17,3,0)</f>
-        <v>0.68343377999999999</v>
+        <v>0.66240687500000006</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2473,27 +2473,27 @@
       </c>
       <c r="B30" s="3">
         <f>-VLOOKUP(B$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A30,Data!$G$4:$L$17,3,0)</f>
-        <v>0.56910398000000006</v>
+        <v>0.5710766874999994</v>
       </c>
       <c r="C30" s="3">
         <f>-VLOOKUP(C$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A30,Data!$G$4:$L$17,3,0)</f>
-        <v>0.46013667999999996</v>
+        <v>0.46247733333333296</v>
       </c>
       <c r="D30" s="3">
         <f>-VLOOKUP(D$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A30,Data!$G$4:$L$17,3,0)</f>
-        <v>0.55435783999999999</v>
+        <v>0.55654645833333272</v>
       </c>
       <c r="E30" s="3">
         <f>-VLOOKUP(E$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A30,Data!$G$4:$L$17,3,0)</f>
-        <v>0.55185419999999996</v>
+        <v>0.55387110416666596</v>
       </c>
       <c r="F30" s="3">
         <f>-VLOOKUP(F$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A30,Data!$G$4:$L$17,3,0)</f>
-        <v>0.51703860000000001</v>
+        <v>0.51933418749999938</v>
       </c>
       <c r="G30" s="3">
         <f>-VLOOKUP(G$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A30,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.11942016</v>
+        <v>-9.6477520833334052E-2</v>
       </c>
       <c r="H30" s="3">
         <f>-VLOOKUP(H$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A30,Data!$G$4:$L$17,3,0)</f>
@@ -2501,31 +2501,31 @@
       </c>
       <c r="I30" s="3">
         <f>-VLOOKUP(I$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A30,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.22077026</v>
+        <v>-0.20446522916666698</v>
       </c>
       <c r="J30" s="3">
         <f>-VLOOKUP(J$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A30,Data!$G$4:$L$17,3,0)</f>
-        <v>-1.0171545200000001</v>
+        <v>-1.0127245416666639</v>
       </c>
       <c r="K30" s="3">
         <f>-VLOOKUP(K$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A30,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.20696893999999999</v>
+        <v>-0.20540614583333394</v>
       </c>
       <c r="L30" s="3">
         <f>-VLOOKUP(L$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A30,Data!$G$4:$L$17,3,0)</f>
-        <v>0.52356685999999997</v>
+        <v>0.52578604166666598</v>
       </c>
       <c r="M30" s="3">
         <f>-VLOOKUP(M$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A30,Data!$G$4:$L$17,3,0)</f>
-        <v>0.15453731999999998</v>
+        <v>0.15589391666666602</v>
       </c>
       <c r="N30" s="3">
         <f>-VLOOKUP(N$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A30,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.25478272000000002</v>
+        <v>-0.25142162499999998</v>
       </c>
       <c r="O30" s="3">
         <f>-VLOOKUP(O$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A30,Data!$G$4:$L$17,3,0)</f>
-        <v>0.56401361999999999</v>
+        <v>0.56592935416666601</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2534,31 +2534,31 @@
       </c>
       <c r="B31" s="3">
         <f>-VLOOKUP(B$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A31,Data!$G$4:$L$17,3,0)</f>
-        <v>0.78987424000000006</v>
+        <v>0.77554191666666639</v>
       </c>
       <c r="C31" s="3">
         <f>-VLOOKUP(C$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A31,Data!$G$4:$L$17,3,0)</f>
-        <v>0.68090693999999996</v>
+        <v>0.66694256249999995</v>
       </c>
       <c r="D31" s="3">
         <f>-VLOOKUP(D$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A31,Data!$G$4:$L$17,3,0)</f>
-        <v>0.77512809999999999</v>
+        <v>0.7610116874999997</v>
       </c>
       <c r="E31" s="3">
         <f>-VLOOKUP(E$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A31,Data!$G$4:$L$17,3,0)</f>
-        <v>0.77262445999999996</v>
+        <v>0.75833633333333295</v>
       </c>
       <c r="F31" s="3">
         <f>-VLOOKUP(F$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A31,Data!$G$4:$L$17,3,0)</f>
-        <v>0.73780886000000001</v>
+        <v>0.72379941666666636</v>
       </c>
       <c r="G31" s="3">
         <f>-VLOOKUP(G$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A31,Data!$G$4:$L$17,3,0)</f>
-        <v>0.1013501</v>
+        <v>0.10798770833333293</v>
       </c>
       <c r="H31" s="3">
         <f>-VLOOKUP(H$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A31,Data!$G$4:$L$17,3,0)</f>
-        <v>0.22077026</v>
+        <v>0.20446522916666698</v>
       </c>
       <c r="I31" s="3">
         <f>-VLOOKUP(I$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A31,Data!$G$4:$L$17,3,0)</f>
@@ -2566,27 +2566,27 @@
       </c>
       <c r="J31" s="3">
         <f>-VLOOKUP(J$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A31,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.79638425999999995</v>
+        <v>-0.80825931249999705</v>
       </c>
       <c r="K31" s="3">
         <f>-VLOOKUP(K$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A31,Data!$G$4:$L$17,3,0)</f>
-        <v>1.3801320000000006E-2</v>
+        <v>-9.4091666666695772E-4</v>
       </c>
       <c r="L31" s="3">
         <f>-VLOOKUP(L$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A31,Data!$G$4:$L$17,3,0)</f>
-        <v>0.74433711999999996</v>
+        <v>0.73025127083333297</v>
       </c>
       <c r="M31" s="3">
         <f>-VLOOKUP(M$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A31,Data!$G$4:$L$17,3,0)</f>
-        <v>0.37530757999999997</v>
+        <v>0.36035914583333301</v>
       </c>
       <c r="N31" s="3">
         <f>-VLOOKUP(N$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A31,Data!$G$4:$L$17,3,0)</f>
-        <v>-3.4012460000000022E-2</v>
+        <v>-4.6956395833332998E-2</v>
       </c>
       <c r="O31" s="3">
         <f>-VLOOKUP(O$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A31,Data!$G$4:$L$17,3,0)</f>
-        <v>0.78478387999999999</v>
+        <v>0.77039458333333299</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2595,35 +2595,35 @@
       </c>
       <c r="B32" s="3">
         <f>-VLOOKUP(B$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A32,Data!$G$4:$L$17,3,0)</f>
-        <v>1.5862585</v>
+        <v>1.5838012291666634</v>
       </c>
       <c r="C32" s="3">
         <f>-VLOOKUP(C$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A32,Data!$G$4:$L$17,3,0)</f>
-        <v>1.4772912</v>
+        <v>1.4752018749999971</v>
       </c>
       <c r="D32" s="3">
         <f>-VLOOKUP(D$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A32,Data!$G$4:$L$17,3,0)</f>
-        <v>1.5715123600000001</v>
+        <v>1.5692709999999968</v>
       </c>
       <c r="E32" s="3">
         <f>-VLOOKUP(E$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A32,Data!$G$4:$L$17,3,0)</f>
-        <v>1.56900872</v>
+        <v>1.5665956458333301</v>
       </c>
       <c r="F32" s="3">
         <f>-VLOOKUP(F$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A32,Data!$G$4:$L$17,3,0)</f>
-        <v>1.5341931199999999</v>
+        <v>1.5320587291666634</v>
       </c>
       <c r="G32" s="3">
         <f>-VLOOKUP(G$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A32,Data!$G$4:$L$17,3,0)</f>
-        <v>0.89773435999999995</v>
+        <v>0.91624702083332998</v>
       </c>
       <c r="H32" s="3">
         <f>-VLOOKUP(H$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A32,Data!$G$4:$L$17,3,0)</f>
-        <v>1.0171545200000001</v>
+        <v>1.0127245416666639</v>
       </c>
       <c r="I32" s="3">
         <f>-VLOOKUP(I$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A32,Data!$G$4:$L$17,3,0)</f>
-        <v>0.79638425999999995</v>
+        <v>0.80825931249999705</v>
       </c>
       <c r="J32" s="3">
         <f>-VLOOKUP(J$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A32,Data!$G$4:$L$17,3,0)</f>
@@ -2631,23 +2631,23 @@
       </c>
       <c r="K32" s="3">
         <f>-VLOOKUP(K$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A32,Data!$G$4:$L$17,3,0)</f>
-        <v>0.81018557999999996</v>
+        <v>0.80731839583333009</v>
       </c>
       <c r="L32" s="3">
         <f>-VLOOKUP(L$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A32,Data!$G$4:$L$17,3,0)</f>
-        <v>1.5407213799999999</v>
+        <v>1.5385105833333301</v>
       </c>
       <c r="M32" s="3">
         <f>-VLOOKUP(M$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A32,Data!$G$4:$L$17,3,0)</f>
-        <v>1.1716918399999998</v>
+        <v>1.1686184583333301</v>
       </c>
       <c r="N32" s="3">
         <f>-VLOOKUP(N$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A32,Data!$G$4:$L$17,3,0)</f>
-        <v>0.76237179999999993</v>
+        <v>0.76130291666666405</v>
       </c>
       <c r="O32" s="3">
         <f>-VLOOKUP(O$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A32,Data!$G$4:$L$17,3,0)</f>
-        <v>1.5811681399999999</v>
+        <v>1.57865389583333</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2656,39 +2656,39 @@
       </c>
       <c r="B33" s="3">
         <f>-VLOOKUP(B$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A33,Data!$G$4:$L$17,3,0)</f>
-        <v>0.77607292000000005</v>
+        <v>0.77648283333333334</v>
       </c>
       <c r="C33" s="3">
         <f>-VLOOKUP(C$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A33,Data!$G$4:$L$17,3,0)</f>
-        <v>0.66710561999999995</v>
+        <v>0.6678834791666669</v>
       </c>
       <c r="D33" s="3">
         <f>-VLOOKUP(D$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A33,Data!$G$4:$L$17,3,0)</f>
-        <v>0.76132677999999998</v>
+        <v>0.76195260416666666</v>
       </c>
       <c r="E33" s="3">
         <f>-VLOOKUP(E$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A33,Data!$G$4:$L$17,3,0)</f>
-        <v>0.75882313999999995</v>
+        <v>0.7592772499999999</v>
       </c>
       <c r="F33" s="3">
         <f>-VLOOKUP(F$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A33,Data!$G$4:$L$17,3,0)</f>
-        <v>0.72400754</v>
+        <v>0.72474033333333332</v>
       </c>
       <c r="G33" s="3">
         <f>-VLOOKUP(G$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A33,Data!$G$4:$L$17,3,0)</f>
-        <v>8.7548779999999993E-2</v>
+        <v>0.10892862499999989</v>
       </c>
       <c r="H33" s="3">
         <f>-VLOOKUP(H$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A33,Data!$G$4:$L$17,3,0)</f>
-        <v>0.20696893999999999</v>
+        <v>0.20540614583333394</v>
       </c>
       <c r="I33" s="3">
         <f>-VLOOKUP(I$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A33,Data!$G$4:$L$17,3,0)</f>
-        <v>-1.3801320000000006E-2</v>
+        <v>9.4091666666695772E-4</v>
       </c>
       <c r="J33" s="3">
         <f>-VLOOKUP(J$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A33,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.81018557999999996</v>
+        <v>-0.80731839583333009</v>
       </c>
       <c r="K33" s="3">
         <f>-VLOOKUP(K$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A33,Data!$G$4:$L$17,3,0)</f>
@@ -2696,19 +2696,19 @@
       </c>
       <c r="L33" s="3">
         <f>-VLOOKUP(L$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A33,Data!$G$4:$L$17,3,0)</f>
-        <v>0.73053579999999996</v>
+        <v>0.73119218749999992</v>
       </c>
       <c r="M33" s="3">
         <f>-VLOOKUP(M$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A33,Data!$G$4:$L$17,3,0)</f>
-        <v>0.36150625999999997</v>
+        <v>0.36130006249999996</v>
       </c>
       <c r="N33" s="3">
         <f>-VLOOKUP(N$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A33,Data!$G$4:$L$17,3,0)</f>
-        <v>-4.7813780000000028E-2</v>
+        <v>-4.601547916666604E-2</v>
       </c>
       <c r="O33" s="3">
         <f>-VLOOKUP(O$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A33,Data!$G$4:$L$17,3,0)</f>
-        <v>0.77098255999999998</v>
+        <v>0.77133549999999995</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2717,43 +2717,43 @@
       </c>
       <c r="B34" s="3">
         <f>-VLOOKUP(B$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A34,Data!$G$4:$L$17,3,0)</f>
-        <v>4.5537120000000098E-2</v>
+        <v>4.5290645833333393E-2</v>
       </c>
       <c r="C34" s="3">
         <f>-VLOOKUP(C$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A34,Data!$G$4:$L$17,3,0)</f>
-        <v>-6.3430180000000003E-2</v>
+        <v>-6.3308708333333019E-2</v>
       </c>
       <c r="D34" s="3">
         <f>-VLOOKUP(D$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A34,Data!$G$4:$L$17,3,0)</f>
-        <v>3.0790980000000003E-2</v>
+        <v>3.0760416666666693E-2</v>
       </c>
       <c r="E34" s="3">
         <f>-VLOOKUP(E$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A34,Data!$G$4:$L$17,3,0)</f>
-        <v>2.8287340000000001E-2</v>
+        <v>2.8085062499999994E-2</v>
       </c>
       <c r="F34" s="3">
         <f>-VLOOKUP(F$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A34,Data!$G$4:$L$17,3,0)</f>
-        <v>-6.5282599999999941E-3</v>
+        <v>-6.4518541666666041E-3</v>
       </c>
       <c r="G34" s="3">
         <f>-VLOOKUP(G$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A34,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.64298701999999996</v>
+        <v>-0.62226356250000003</v>
       </c>
       <c r="H34" s="3">
         <f>-VLOOKUP(H$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A34,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.52356685999999997</v>
+        <v>-0.52578604166666598</v>
       </c>
       <c r="I34" s="3">
         <f>-VLOOKUP(I$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A34,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.74433711999999996</v>
+        <v>-0.73025127083333297</v>
       </c>
       <c r="J34" s="3">
         <f>-VLOOKUP(J$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A34,Data!$G$4:$L$17,3,0)</f>
-        <v>-1.5407213799999999</v>
+        <v>-1.5385105833333301</v>
       </c>
       <c r="K34" s="3">
         <f>-VLOOKUP(K$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A34,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.73053579999999996</v>
+        <v>-0.73119218749999992</v>
       </c>
       <c r="L34" s="3">
         <f>-VLOOKUP(L$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A34,Data!$G$4:$L$17,3,0)</f>
@@ -2761,15 +2761,15 @@
       </c>
       <c r="M34" s="3">
         <f>-VLOOKUP(M$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A34,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.36902953999999999</v>
+        <v>-0.36989212500000002</v>
       </c>
       <c r="N34" s="3">
         <f>-VLOOKUP(N$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A34,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.77834957999999999</v>
+        <v>-0.77720766666666596</v>
       </c>
       <c r="O34" s="3">
         <f>-VLOOKUP(O$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A34,Data!$G$4:$L$17,3,0)</f>
-        <v>4.0446759999999998E-2</v>
+        <v>4.0143312499999993E-2</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2778,47 +2778,47 @@
       </c>
       <c r="B35" s="3">
         <f>-VLOOKUP(B$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A35,Data!$G$4:$L$17,3,0)</f>
-        <v>0.41456666000000014</v>
+        <v>0.41518277083333338</v>
       </c>
       <c r="C35" s="3">
         <f>-VLOOKUP(C$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A35,Data!$G$4:$L$17,3,0)</f>
-        <v>0.30559935999999999</v>
+        <v>0.306583416666667</v>
       </c>
       <c r="D35" s="3">
         <f>-VLOOKUP(D$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A35,Data!$G$4:$L$17,3,0)</f>
-        <v>0.39982052000000001</v>
+        <v>0.40065254166666669</v>
       </c>
       <c r="E35" s="3">
         <f>-VLOOKUP(E$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A35,Data!$G$4:$L$17,3,0)</f>
-        <v>0.39731688000000004</v>
+        <v>0.3979771875</v>
       </c>
       <c r="F35" s="3">
         <f>-VLOOKUP(F$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A35,Data!$G$4:$L$17,3,0)</f>
-        <v>0.36250128000000004</v>
+        <v>0.36344027083333341</v>
       </c>
       <c r="G35" s="3">
         <f>-VLOOKUP(G$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A35,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.27395747999999998</v>
+        <v>-0.25237143750000007</v>
       </c>
       <c r="H35" s="3">
         <f>-VLOOKUP(H$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A35,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.15453731999999998</v>
+        <v>-0.15589391666666602</v>
       </c>
       <c r="I35" s="3">
         <f>-VLOOKUP(I$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A35,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.37530757999999997</v>
+        <v>-0.36035914583333301</v>
       </c>
       <c r="J35" s="3">
         <f>-VLOOKUP(J$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A35,Data!$G$4:$L$17,3,0)</f>
-        <v>-1.1716918399999998</v>
+        <v>-1.1686184583333301</v>
       </c>
       <c r="K35" s="3">
         <f>-VLOOKUP(K$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A35,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.36150625999999997</v>
+        <v>-0.36130006249999996</v>
       </c>
       <c r="L35" s="3">
         <f>-VLOOKUP(L$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A35,Data!$G$4:$L$17,3,0)</f>
-        <v>0.36902953999999999</v>
+        <v>0.36989212500000002</v>
       </c>
       <c r="M35" s="3">
         <f>-VLOOKUP(M$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A35,Data!$G$4:$L$17,3,0)</f>
@@ -2826,11 +2826,11 @@
       </c>
       <c r="N35" s="3">
         <f>-VLOOKUP(N$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A35,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.40932004</v>
+        <v>-0.407315541666666</v>
       </c>
       <c r="O35" s="3">
         <f>-VLOOKUP(O$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A35,Data!$G$4:$L$17,3,0)</f>
-        <v>0.40947630000000002</v>
+        <v>0.41003543749999999</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2839,51 +2839,51 @@
       </c>
       <c r="B36" s="3">
         <f>-VLOOKUP(B$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A36,Data!$G$4:$L$17,3,0)</f>
-        <v>0.82388670000000008</v>
+        <v>0.82249831249999938</v>
       </c>
       <c r="C36" s="3">
         <f>-VLOOKUP(C$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A36,Data!$G$4:$L$17,3,0)</f>
-        <v>0.71491939999999998</v>
+        <v>0.71389895833333294</v>
       </c>
       <c r="D36" s="3">
         <f>-VLOOKUP(D$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A36,Data!$G$4:$L$17,3,0)</f>
-        <v>0.80914056000000001</v>
+        <v>0.8079680833333327</v>
       </c>
       <c r="E36" s="3">
         <f>-VLOOKUP(E$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A36,Data!$G$4:$L$17,3,0)</f>
-        <v>0.80663691999999998</v>
+        <v>0.80529272916666594</v>
       </c>
       <c r="F36" s="3">
         <f>-VLOOKUP(F$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A36,Data!$G$4:$L$17,3,0)</f>
-        <v>0.77182132000000003</v>
+        <v>0.77075581249999936</v>
       </c>
       <c r="G36" s="3">
         <f>-VLOOKUP(G$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A36,Data!$G$4:$L$17,3,0)</f>
-        <v>0.13536256000000002</v>
+        <v>0.15494410416666593</v>
       </c>
       <c r="H36" s="3">
         <f>-VLOOKUP(H$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A36,Data!$G$4:$L$17,3,0)</f>
-        <v>0.25478272000000002</v>
+        <v>0.25142162499999998</v>
       </c>
       <c r="I36" s="3">
         <f>-VLOOKUP(I$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A36,Data!$G$4:$L$17,3,0)</f>
-        <v>3.4012460000000022E-2</v>
+        <v>4.6956395833332998E-2</v>
       </c>
       <c r="J36" s="3">
         <f>-VLOOKUP(J$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A36,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.76237179999999993</v>
+        <v>-0.76130291666666405</v>
       </c>
       <c r="K36" s="3">
         <f>-VLOOKUP(K$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A36,Data!$G$4:$L$17,3,0)</f>
-        <v>4.7813780000000028E-2</v>
+        <v>4.601547916666604E-2</v>
       </c>
       <c r="L36" s="3">
         <f>-VLOOKUP(L$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A36,Data!$G$4:$L$17,3,0)</f>
-        <v>0.77834957999999999</v>
+        <v>0.77720766666666596</v>
       </c>
       <c r="M36" s="3">
         <f>-VLOOKUP(M$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A36,Data!$G$4:$L$17,3,0)</f>
-        <v>0.40932004</v>
+        <v>0.407315541666666</v>
       </c>
       <c r="N36" s="3">
         <f>-VLOOKUP(N$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A36,Data!$G$4:$L$17,3,0)</f>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="O36" s="3">
         <f>-VLOOKUP(O$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A36,Data!$G$4:$L$17,3,0)</f>
-        <v>0.81879634000000001</v>
+        <v>0.81735097916666599</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2900,55 +2900,55 @@
       </c>
       <c r="B37" s="3">
         <f>-VLOOKUP(B$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A37,Data!$G$4:$L$17,3,0)</f>
-        <v>5.0903600000000992E-3</v>
+        <v>5.1473333333333995E-3</v>
       </c>
       <c r="C37" s="3">
         <f>-VLOOKUP(C$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A37,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.10387694</v>
+        <v>-0.10345202083333302</v>
       </c>
       <c r="D37" s="3">
         <f>-VLOOKUP(D$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A37,Data!$G$4:$L$17,3,0)</f>
-        <v>-9.6557799999999992E-3</v>
+        <v>-9.3828958333333004E-3</v>
       </c>
       <c r="E37" s="3">
         <f>-VLOOKUP(E$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A37,Data!$G$4:$L$17,3,0)</f>
-        <v>-1.2159420000000001E-2</v>
+        <v>-1.205825E-2</v>
       </c>
       <c r="F37" s="3">
         <f>-VLOOKUP(F$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A37,Data!$G$4:$L$17,3,0)</f>
-        <v>-4.6975019999999992E-2</v>
+        <v>-4.6595166666666597E-2</v>
       </c>
       <c r="G37" s="3">
         <f>-VLOOKUP(G$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A37,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.68343377999999999</v>
+        <v>-0.66240687500000006</v>
       </c>
       <c r="H37" s="3">
         <f>-VLOOKUP(H$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A37,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.56401361999999999</v>
+        <v>-0.56592935416666601</v>
       </c>
       <c r="I37" s="3">
         <f>-VLOOKUP(I$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A37,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.78478387999999999</v>
+        <v>-0.77039458333333299</v>
       </c>
       <c r="J37" s="3">
         <f>-VLOOKUP(J$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A37,Data!$G$4:$L$17,3,0)</f>
-        <v>-1.5811681399999999</v>
+        <v>-1.57865389583333</v>
       </c>
       <c r="K37" s="3">
         <f>-VLOOKUP(K$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A37,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.77098255999999998</v>
+        <v>-0.77133549999999995</v>
       </c>
       <c r="L37" s="3">
         <f>-VLOOKUP(L$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A37,Data!$G$4:$L$17,3,0)</f>
-        <v>-4.0446759999999998E-2</v>
+        <v>-4.0143312499999993E-2</v>
       </c>
       <c r="M37" s="3">
         <f>-VLOOKUP(M$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A37,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.40947630000000002</v>
+        <v>-0.41003543749999999</v>
       </c>
       <c r="N37" s="3">
         <f>-VLOOKUP(N$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A37,Data!$G$4:$L$17,3,0)</f>
-        <v>-0.81879634000000001</v>
+        <v>-0.81735097916666599</v>
       </c>
       <c r="O37" s="3">
         <f>-VLOOKUP(O$23,Data!$G$4:$L$17,3,0) + VLOOKUP($A37,Data!$G$4:$L$17,3,0)</f>
@@ -3030,55 +3030,55 @@
       </c>
       <c r="C44">
         <f>-VLOOKUP(C$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A44,Data!$G$4:$L$17,4,0)</f>
-        <v>-33.54</v>
+        <v>-33.8125</v>
       </c>
       <c r="D44">
         <f>-VLOOKUP(D$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A44,Data!$G$4:$L$17,4,0)</f>
-        <v>-3.2600000000000016</v>
+        <v>-3.3125</v>
       </c>
       <c r="E44">
         <f>-VLOOKUP(E$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A44,Data!$G$4:$L$17,4,0)</f>
-        <v>-4.3600000000000012</v>
+        <v>-4.4166666666666003</v>
       </c>
       <c r="F44">
         <f>-VLOOKUP(F$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A44,Data!$G$4:$L$17,4,0)</f>
-        <v>-14.62</v>
+        <v>-14.75</v>
       </c>
       <c r="G44">
         <f>-VLOOKUP(G$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A44,Data!$G$4:$L$17,4,0)</f>
-        <v>-76.8</v>
+        <v>-62.2916666666666</v>
       </c>
       <c r="H44">
         <f>-VLOOKUP(H$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A44,Data!$G$4:$L$17,4,0)</f>
-        <v>-46.36</v>
+        <v>-46.0833333333333</v>
       </c>
       <c r="I44">
         <f>-VLOOKUP(I$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A44,Data!$G$4:$L$17,4,0)</f>
-        <v>-104.28</v>
+        <v>-92</v>
       </c>
       <c r="J44">
         <f>-VLOOKUP(J$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A44,Data!$G$4:$L$17,4,0)</f>
-        <v>-129.72</v>
+        <v>-129.458333333333</v>
       </c>
       <c r="K44">
         <f>-VLOOKUP(K$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A44,Data!$G$4:$L$17,4,0)</f>
-        <v>-64.539999999999992</v>
+        <v>-64.2708333333333</v>
       </c>
       <c r="L44">
         <f>-VLOOKUP(L$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A44,Data!$G$4:$L$17,4,0)</f>
-        <v>-11.38</v>
+        <v>-11.3958333333333</v>
       </c>
       <c r="M44">
         <f>-VLOOKUP(M$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A44,Data!$G$4:$L$17,4,0)</f>
-        <v>-45.32</v>
+        <v>-45.1875</v>
       </c>
       <c r="N44">
         <f>-VLOOKUP(N$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A44,Data!$G$4:$L$17,4,0)</f>
-        <v>-69.61999999999999</v>
+        <v>-69.5833333333333</v>
       </c>
       <c r="O44">
         <f>-VLOOKUP(O$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A44,Data!$G$4:$L$17,4,0)</f>
-        <v>-2.2400000000000002</v>
+        <v>-2.2291666666666003</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B45">
         <f>-VLOOKUP(B$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A45,Data!$G$4:$L$17,4,0)</f>
-        <v>33.54</v>
+        <v>33.8125</v>
       </c>
       <c r="C45">
         <f>-VLOOKUP(C$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A45,Data!$G$4:$L$17,4,0)</f>
@@ -3095,51 +3095,51 @@
       </c>
       <c r="D45">
         <f>-VLOOKUP(D$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A45,Data!$G$4:$L$17,4,0)</f>
-        <v>30.279999999999994</v>
+        <v>30.5</v>
       </c>
       <c r="E45">
         <f>-VLOOKUP(E$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A45,Data!$G$4:$L$17,4,0)</f>
-        <v>29.179999999999996</v>
+        <v>29.3958333333334</v>
       </c>
       <c r="F45">
         <f>-VLOOKUP(F$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A45,Data!$G$4:$L$17,4,0)</f>
-        <v>18.919999999999998</v>
+        <v>19.0625</v>
       </c>
       <c r="G45">
         <f>-VLOOKUP(G$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A45,Data!$G$4:$L$17,4,0)</f>
-        <v>-43.260000000000005</v>
+        <v>-28.4791666666666</v>
       </c>
       <c r="H45">
         <f>-VLOOKUP(H$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A45,Data!$G$4:$L$17,4,0)</f>
-        <v>-12.82</v>
+        <v>-12.2708333333333</v>
       </c>
       <c r="I45">
         <f>-VLOOKUP(I$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A45,Data!$G$4:$L$17,4,0)</f>
-        <v>-70.740000000000009</v>
+        <v>-58.1875</v>
       </c>
       <c r="J45">
         <f>-VLOOKUP(J$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A45,Data!$G$4:$L$17,4,0)</f>
-        <v>-96.18</v>
+        <v>-95.645833333333002</v>
       </c>
       <c r="K45">
         <f>-VLOOKUP(K$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A45,Data!$G$4:$L$17,4,0)</f>
-        <v>-31</v>
+        <v>-30.4583333333333</v>
       </c>
       <c r="L45">
         <f>-VLOOKUP(L$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A45,Data!$G$4:$L$17,4,0)</f>
-        <v>22.159999999999997</v>
+        <v>22.4166666666667</v>
       </c>
       <c r="M45">
         <f>-VLOOKUP(M$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A45,Data!$G$4:$L$17,4,0)</f>
-        <v>-11.780000000000001</v>
+        <v>-11.375</v>
       </c>
       <c r="N45">
         <f>-VLOOKUP(N$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A45,Data!$G$4:$L$17,4,0)</f>
-        <v>-36.08</v>
+        <v>-35.7708333333333</v>
       </c>
       <c r="O45">
         <f>-VLOOKUP(O$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A45,Data!$G$4:$L$17,4,0)</f>
-        <v>31.299999999999997</v>
+        <v>31.5833333333334</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3148,11 +3148,11 @@
       </c>
       <c r="B46">
         <f>-VLOOKUP(B$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A46,Data!$G$4:$L$17,4,0)</f>
-        <v>3.2600000000000016</v>
+        <v>3.3125</v>
       </c>
       <c r="C46">
         <f>-VLOOKUP(C$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A46,Data!$G$4:$L$17,4,0)</f>
-        <v>-30.279999999999994</v>
+        <v>-30.5</v>
       </c>
       <c r="D46">
         <f>-VLOOKUP(D$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A46,Data!$G$4:$L$17,4,0)</f>
@@ -3160,47 +3160,47 @@
       </c>
       <c r="E46">
         <f>-VLOOKUP(E$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A46,Data!$G$4:$L$17,4,0)</f>
-        <v>-1.0999999999999996</v>
+        <v>-1.1041666666666003</v>
       </c>
       <c r="F46">
         <f>-VLOOKUP(F$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A46,Data!$G$4:$L$17,4,0)</f>
-        <v>-11.359999999999998</v>
+        <v>-11.4375</v>
       </c>
       <c r="G46">
         <f>-VLOOKUP(G$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A46,Data!$G$4:$L$17,4,0)</f>
-        <v>-73.540000000000006</v>
+        <v>-58.9791666666666</v>
       </c>
       <c r="H46">
         <f>-VLOOKUP(H$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A46,Data!$G$4:$L$17,4,0)</f>
-        <v>-43.099999999999994</v>
+        <v>-42.7708333333333</v>
       </c>
       <c r="I46">
         <f>-VLOOKUP(I$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A46,Data!$G$4:$L$17,4,0)</f>
-        <v>-101.02000000000001</v>
+        <v>-88.6875</v>
       </c>
       <c r="J46">
         <f>-VLOOKUP(J$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A46,Data!$G$4:$L$17,4,0)</f>
-        <v>-126.46000000000001</v>
+        <v>-126.145833333333</v>
       </c>
       <c r="K46">
         <f>-VLOOKUP(K$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A46,Data!$G$4:$L$17,4,0)</f>
-        <v>-61.279999999999994</v>
+        <v>-60.9583333333333</v>
       </c>
       <c r="L46">
         <f>-VLOOKUP(L$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A46,Data!$G$4:$L$17,4,0)</f>
-        <v>-8.1199999999999992</v>
+        <v>-8.0833333333333002</v>
       </c>
       <c r="M46">
         <f>-VLOOKUP(M$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A46,Data!$G$4:$L$17,4,0)</f>
-        <v>-42.059999999999995</v>
+        <v>-41.875</v>
       </c>
       <c r="N46">
         <f>-VLOOKUP(N$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A46,Data!$G$4:$L$17,4,0)</f>
-        <v>-66.36</v>
+        <v>-66.2708333333333</v>
       </c>
       <c r="O46">
         <f>-VLOOKUP(O$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A46,Data!$G$4:$L$17,4,0)</f>
-        <v>1.0200000000000014</v>
+        <v>1.0833333333333997</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3209,15 +3209,15 @@
       </c>
       <c r="B47">
         <f>-VLOOKUP(B$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A47,Data!$G$4:$L$17,4,0)</f>
-        <v>4.3600000000000012</v>
+        <v>4.4166666666666003</v>
       </c>
       <c r="C47">
         <f>-VLOOKUP(C$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A47,Data!$G$4:$L$17,4,0)</f>
-        <v>-29.179999999999996</v>
+        <v>-29.3958333333334</v>
       </c>
       <c r="D47">
         <f>-VLOOKUP(D$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A47,Data!$G$4:$L$17,4,0)</f>
-        <v>1.0999999999999996</v>
+        <v>1.1041666666666003</v>
       </c>
       <c r="E47">
         <f>-VLOOKUP(E$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A47,Data!$G$4:$L$17,4,0)</f>
@@ -3225,43 +3225,43 @@
       </c>
       <c r="F47">
         <f>-VLOOKUP(F$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A47,Data!$G$4:$L$17,4,0)</f>
-        <v>-10.259999999999998</v>
+        <v>-10.3333333333334</v>
       </c>
       <c r="G47">
         <f>-VLOOKUP(G$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A47,Data!$G$4:$L$17,4,0)</f>
-        <v>-72.44</v>
+        <v>-57.875</v>
       </c>
       <c r="H47">
         <f>-VLOOKUP(H$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A47,Data!$G$4:$L$17,4,0)</f>
-        <v>-42</v>
+        <v>-41.6666666666667</v>
       </c>
       <c r="I47">
         <f>-VLOOKUP(I$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A47,Data!$G$4:$L$17,4,0)</f>
-        <v>-99.92</v>
+        <v>-87.5833333333334</v>
       </c>
       <c r="J47">
         <f>-VLOOKUP(J$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A47,Data!$G$4:$L$17,4,0)</f>
-        <v>-125.36</v>
+        <v>-125.0416666666664</v>
       </c>
       <c r="K47">
         <f>-VLOOKUP(K$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A47,Data!$G$4:$L$17,4,0)</f>
-        <v>-60.179999999999993</v>
+        <v>-59.8541666666667</v>
       </c>
       <c r="L47">
         <f>-VLOOKUP(L$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A47,Data!$G$4:$L$17,4,0)</f>
-        <v>-7.02</v>
+        <v>-6.9791666666666998</v>
       </c>
       <c r="M47">
         <f>-VLOOKUP(M$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A47,Data!$G$4:$L$17,4,0)</f>
-        <v>-40.959999999999994</v>
+        <v>-40.7708333333334</v>
       </c>
       <c r="N47">
         <f>-VLOOKUP(N$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A47,Data!$G$4:$L$17,4,0)</f>
-        <v>-65.259999999999991</v>
+        <v>-65.1666666666667</v>
       </c>
       <c r="O47">
         <f>-VLOOKUP(O$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A47,Data!$G$4:$L$17,4,0)</f>
-        <v>2.120000000000001</v>
+        <v>2.1875</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3270,19 +3270,19 @@
       </c>
       <c r="B48">
         <f>-VLOOKUP(B$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A48,Data!$G$4:$L$17,4,0)</f>
-        <v>14.62</v>
+        <v>14.75</v>
       </c>
       <c r="C48">
         <f>-VLOOKUP(C$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A48,Data!$G$4:$L$17,4,0)</f>
-        <v>-18.919999999999998</v>
+        <v>-19.0625</v>
       </c>
       <c r="D48">
         <f>-VLOOKUP(D$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A48,Data!$G$4:$L$17,4,0)</f>
-        <v>11.359999999999998</v>
+        <v>11.4375</v>
       </c>
       <c r="E48">
         <f>-VLOOKUP(E$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A48,Data!$G$4:$L$17,4,0)</f>
-        <v>10.259999999999998</v>
+        <v>10.3333333333334</v>
       </c>
       <c r="F48">
         <f>-VLOOKUP(F$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A48,Data!$G$4:$L$17,4,0)</f>
@@ -3290,39 +3290,39 @@
       </c>
       <c r="G48">
         <f>-VLOOKUP(G$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A48,Data!$G$4:$L$17,4,0)</f>
-        <v>-62.180000000000007</v>
+        <v>-47.5416666666666</v>
       </c>
       <c r="H48">
         <f>-VLOOKUP(H$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A48,Data!$G$4:$L$17,4,0)</f>
-        <v>-31.74</v>
+        <v>-31.3333333333333</v>
       </c>
       <c r="I48">
         <f>-VLOOKUP(I$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A48,Data!$G$4:$L$17,4,0)</f>
-        <v>-89.660000000000011</v>
+        <v>-77.25</v>
       </c>
       <c r="J48">
         <f>-VLOOKUP(J$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A48,Data!$G$4:$L$17,4,0)</f>
-        <v>-115.10000000000001</v>
+        <v>-114.708333333333</v>
       </c>
       <c r="K48">
         <f>-VLOOKUP(K$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A48,Data!$G$4:$L$17,4,0)</f>
-        <v>-49.92</v>
+        <v>-49.5208333333333</v>
       </c>
       <c r="L48">
         <f>-VLOOKUP(L$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A48,Data!$G$4:$L$17,4,0)</f>
-        <v>3.2399999999999984</v>
+        <v>3.3541666666666998</v>
       </c>
       <c r="M48">
         <f>-VLOOKUP(M$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A48,Data!$G$4:$L$17,4,0)</f>
-        <v>-30.7</v>
+        <v>-30.4375</v>
       </c>
       <c r="N48">
         <f>-VLOOKUP(N$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A48,Data!$G$4:$L$17,4,0)</f>
-        <v>-55</v>
+        <v>-54.8333333333333</v>
       </c>
       <c r="O48">
         <f>-VLOOKUP(O$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A48,Data!$G$4:$L$17,4,0)</f>
-        <v>12.379999999999999</v>
+        <v>12.5208333333334</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3331,23 +3331,23 @@
       </c>
       <c r="B49">
         <f>-VLOOKUP(B$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A49,Data!$G$4:$L$17,4,0)</f>
-        <v>76.8</v>
+        <v>62.2916666666666</v>
       </c>
       <c r="C49">
         <f>-VLOOKUP(C$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A49,Data!$G$4:$L$17,4,0)</f>
-        <v>43.260000000000005</v>
+        <v>28.4791666666666</v>
       </c>
       <c r="D49">
         <f>-VLOOKUP(D$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A49,Data!$G$4:$L$17,4,0)</f>
-        <v>73.540000000000006</v>
+        <v>58.9791666666666</v>
       </c>
       <c r="E49">
         <f>-VLOOKUP(E$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A49,Data!$G$4:$L$17,4,0)</f>
-        <v>72.44</v>
+        <v>57.875</v>
       </c>
       <c r="F49">
         <f>-VLOOKUP(F$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A49,Data!$G$4:$L$17,4,0)</f>
-        <v>62.180000000000007</v>
+        <v>47.5416666666666</v>
       </c>
       <c r="G49">
         <f>-VLOOKUP(G$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A49,Data!$G$4:$L$17,4,0)</f>
@@ -3355,35 +3355,35 @@
       </c>
       <c r="H49">
         <f>-VLOOKUP(H$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A49,Data!$G$4:$L$17,4,0)</f>
-        <v>30.440000000000005</v>
+        <v>16.2083333333333</v>
       </c>
       <c r="I49">
         <f>-VLOOKUP(I$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A49,Data!$G$4:$L$17,4,0)</f>
-        <v>-27.480000000000004</v>
+        <v>-29.7083333333334</v>
       </c>
       <c r="J49">
         <f>-VLOOKUP(J$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A49,Data!$G$4:$L$17,4,0)</f>
-        <v>-52.92</v>
+        <v>-67.166666666666401</v>
       </c>
       <c r="K49">
         <f>-VLOOKUP(K$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A49,Data!$G$4:$L$17,4,0)</f>
-        <v>12.260000000000005</v>
+        <v>-1.9791666666666998</v>
       </c>
       <c r="L49">
         <f>-VLOOKUP(L$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A49,Data!$G$4:$L$17,4,0)</f>
-        <v>65.42</v>
+        <v>50.8958333333333</v>
       </c>
       <c r="M49">
         <f>-VLOOKUP(M$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A49,Data!$G$4:$L$17,4,0)</f>
-        <v>31.480000000000004</v>
+        <v>17.1041666666666</v>
       </c>
       <c r="N49">
         <f>-VLOOKUP(N$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A49,Data!$G$4:$L$17,4,0)</f>
-        <v>7.1800000000000068</v>
+        <v>-7.2916666666666998</v>
       </c>
       <c r="O49">
         <f>-VLOOKUP(O$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A49,Data!$G$4:$L$17,4,0)</f>
-        <v>74.56</v>
+        <v>60.0625</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3392,27 +3392,27 @@
       </c>
       <c r="B50">
         <f>-VLOOKUP(B$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A50,Data!$G$4:$L$17,4,0)</f>
-        <v>46.36</v>
+        <v>46.0833333333333</v>
       </c>
       <c r="C50">
         <f>-VLOOKUP(C$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A50,Data!$G$4:$L$17,4,0)</f>
-        <v>12.82</v>
+        <v>12.2708333333333</v>
       </c>
       <c r="D50">
         <f>-VLOOKUP(D$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A50,Data!$G$4:$L$17,4,0)</f>
-        <v>43.099999999999994</v>
+        <v>42.7708333333333</v>
       </c>
       <c r="E50">
         <f>-VLOOKUP(E$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A50,Data!$G$4:$L$17,4,0)</f>
-        <v>42</v>
+        <v>41.6666666666667</v>
       </c>
       <c r="F50">
         <f>-VLOOKUP(F$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A50,Data!$G$4:$L$17,4,0)</f>
-        <v>31.74</v>
+        <v>31.3333333333333</v>
       </c>
       <c r="G50">
         <f>-VLOOKUP(G$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A50,Data!$G$4:$L$17,4,0)</f>
-        <v>-30.440000000000005</v>
+        <v>-16.2083333333333</v>
       </c>
       <c r="H50">
         <f>-VLOOKUP(H$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A50,Data!$G$4:$L$17,4,0)</f>
@@ -3420,31 +3420,31 @@
       </c>
       <c r="I50">
         <f>-VLOOKUP(I$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A50,Data!$G$4:$L$17,4,0)</f>
-        <v>-57.920000000000009</v>
+        <v>-45.9166666666667</v>
       </c>
       <c r="J50">
         <f>-VLOOKUP(J$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A50,Data!$G$4:$L$17,4,0)</f>
-        <v>-83.360000000000014</v>
+        <v>-83.374999999999702</v>
       </c>
       <c r="K50">
         <f>-VLOOKUP(K$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A50,Data!$G$4:$L$17,4,0)</f>
-        <v>-18.18</v>
+        <v>-18.1875</v>
       </c>
       <c r="L50">
         <f>-VLOOKUP(L$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A50,Data!$G$4:$L$17,4,0)</f>
-        <v>34.979999999999997</v>
+        <v>34.6875</v>
       </c>
       <c r="M50">
         <f>-VLOOKUP(M$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A50,Data!$G$4:$L$17,4,0)</f>
-        <v>1.0399999999999991</v>
+        <v>0.89583333333330017</v>
       </c>
       <c r="N50">
         <f>-VLOOKUP(N$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A50,Data!$G$4:$L$17,4,0)</f>
-        <v>-23.259999999999998</v>
+        <v>-23.5</v>
       </c>
       <c r="O50">
         <f>-VLOOKUP(O$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A50,Data!$G$4:$L$17,4,0)</f>
-        <v>44.12</v>
+        <v>43.8541666666667</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3453,31 +3453,31 @@
       </c>
       <c r="B51">
         <f>-VLOOKUP(B$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A51,Data!$G$4:$L$17,4,0)</f>
-        <v>104.28</v>
+        <v>92</v>
       </c>
       <c r="C51">
         <f>-VLOOKUP(C$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A51,Data!$G$4:$L$17,4,0)</f>
-        <v>70.740000000000009</v>
+        <v>58.1875</v>
       </c>
       <c r="D51">
         <f>-VLOOKUP(D$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A51,Data!$G$4:$L$17,4,0)</f>
-        <v>101.02000000000001</v>
+        <v>88.6875</v>
       </c>
       <c r="E51">
         <f>-VLOOKUP(E$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A51,Data!$G$4:$L$17,4,0)</f>
-        <v>99.92</v>
+        <v>87.5833333333334</v>
       </c>
       <c r="F51">
         <f>-VLOOKUP(F$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A51,Data!$G$4:$L$17,4,0)</f>
-        <v>89.660000000000011</v>
+        <v>77.25</v>
       </c>
       <c r="G51">
         <f>-VLOOKUP(G$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A51,Data!$G$4:$L$17,4,0)</f>
-        <v>27.480000000000004</v>
+        <v>29.7083333333334</v>
       </c>
       <c r="H51">
         <f>-VLOOKUP(H$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A51,Data!$G$4:$L$17,4,0)</f>
-        <v>57.920000000000009</v>
+        <v>45.9166666666667</v>
       </c>
       <c r="I51">
         <f>-VLOOKUP(I$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A51,Data!$G$4:$L$17,4,0)</f>
@@ -3485,27 +3485,27 @@
       </c>
       <c r="J51">
         <f>-VLOOKUP(J$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A51,Data!$G$4:$L$17,4,0)</f>
-        <v>-25.439999999999998</v>
+        <v>-37.458333333333002</v>
       </c>
       <c r="K51">
         <f>-VLOOKUP(K$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A51,Data!$G$4:$L$17,4,0)</f>
-        <v>39.740000000000009</v>
+        <v>27.7291666666667</v>
       </c>
       <c r="L51">
         <f>-VLOOKUP(L$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A51,Data!$G$4:$L$17,4,0)</f>
-        <v>92.9</v>
+        <v>80.6041666666667</v>
       </c>
       <c r="M51">
         <f>-VLOOKUP(M$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A51,Data!$G$4:$L$17,4,0)</f>
-        <v>58.960000000000008</v>
+        <v>46.8125</v>
       </c>
       <c r="N51">
         <f>-VLOOKUP(N$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A51,Data!$G$4:$L$17,4,0)</f>
-        <v>34.660000000000011</v>
+        <v>22.4166666666667</v>
       </c>
       <c r="O51">
         <f>-VLOOKUP(O$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A51,Data!$G$4:$L$17,4,0)</f>
-        <v>102.04</v>
+        <v>89.7708333333334</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -3514,35 +3514,35 @@
       </c>
       <c r="B52">
         <f>-VLOOKUP(B$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A52,Data!$G$4:$L$17,4,0)</f>
-        <v>129.72</v>
+        <v>129.458333333333</v>
       </c>
       <c r="C52">
         <f>-VLOOKUP(C$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A52,Data!$G$4:$L$17,4,0)</f>
-        <v>96.18</v>
+        <v>95.645833333333002</v>
       </c>
       <c r="D52">
         <f>-VLOOKUP(D$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A52,Data!$G$4:$L$17,4,0)</f>
-        <v>126.46000000000001</v>
+        <v>126.145833333333</v>
       </c>
       <c r="E52">
         <f>-VLOOKUP(E$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A52,Data!$G$4:$L$17,4,0)</f>
-        <v>125.36</v>
+        <v>125.0416666666664</v>
       </c>
       <c r="F52">
         <f>-VLOOKUP(F$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A52,Data!$G$4:$L$17,4,0)</f>
-        <v>115.10000000000001</v>
+        <v>114.708333333333</v>
       </c>
       <c r="G52">
         <f>-VLOOKUP(G$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A52,Data!$G$4:$L$17,4,0)</f>
-        <v>52.92</v>
+        <v>67.166666666666401</v>
       </c>
       <c r="H52">
         <f>-VLOOKUP(H$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A52,Data!$G$4:$L$17,4,0)</f>
-        <v>83.360000000000014</v>
+        <v>83.374999999999702</v>
       </c>
       <c r="I52">
         <f>-VLOOKUP(I$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A52,Data!$G$4:$L$17,4,0)</f>
-        <v>25.439999999999998</v>
+        <v>37.458333333333002</v>
       </c>
       <c r="J52">
         <f>-VLOOKUP(J$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A52,Data!$G$4:$L$17,4,0)</f>
@@ -3550,23 +3550,23 @@
       </c>
       <c r="K52">
         <f>-VLOOKUP(K$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A52,Data!$G$4:$L$17,4,0)</f>
-        <v>65.180000000000007</v>
+        <v>65.187499999999702</v>
       </c>
       <c r="L52">
         <f>-VLOOKUP(L$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A52,Data!$G$4:$L$17,4,0)</f>
-        <v>118.34</v>
+        <v>118.0624999999997</v>
       </c>
       <c r="M52">
         <f>-VLOOKUP(M$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A52,Data!$G$4:$L$17,4,0)</f>
-        <v>84.4</v>
+        <v>84.270833333333002</v>
       </c>
       <c r="N52">
         <f>-VLOOKUP(N$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A52,Data!$G$4:$L$17,4,0)</f>
-        <v>60.100000000000009</v>
+        <v>59.874999999999702</v>
       </c>
       <c r="O52">
         <f>-VLOOKUP(O$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A52,Data!$G$4:$L$17,4,0)</f>
-        <v>127.48</v>
+        <v>127.2291666666664</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -3575,39 +3575,39 @@
       </c>
       <c r="B53">
         <f>-VLOOKUP(B$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A53,Data!$G$4:$L$17,4,0)</f>
-        <v>64.539999999999992</v>
+        <v>64.2708333333333</v>
       </c>
       <c r="C53">
         <f>-VLOOKUP(C$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A53,Data!$G$4:$L$17,4,0)</f>
-        <v>31</v>
+        <v>30.4583333333333</v>
       </c>
       <c r="D53">
         <f>-VLOOKUP(D$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A53,Data!$G$4:$L$17,4,0)</f>
-        <v>61.279999999999994</v>
+        <v>60.9583333333333</v>
       </c>
       <c r="E53">
         <f>-VLOOKUP(E$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A53,Data!$G$4:$L$17,4,0)</f>
-        <v>60.179999999999993</v>
+        <v>59.8541666666667</v>
       </c>
       <c r="F53">
         <f>-VLOOKUP(F$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A53,Data!$G$4:$L$17,4,0)</f>
-        <v>49.92</v>
+        <v>49.5208333333333</v>
       </c>
       <c r="G53">
         <f>-VLOOKUP(G$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A53,Data!$G$4:$L$17,4,0)</f>
-        <v>-12.260000000000005</v>
+        <v>1.9791666666666998</v>
       </c>
       <c r="H53">
         <f>-VLOOKUP(H$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A53,Data!$G$4:$L$17,4,0)</f>
-        <v>18.18</v>
+        <v>18.1875</v>
       </c>
       <c r="I53">
         <f>-VLOOKUP(I$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A53,Data!$G$4:$L$17,4,0)</f>
-        <v>-39.740000000000009</v>
+        <v>-27.7291666666667</v>
       </c>
       <c r="J53">
         <f>-VLOOKUP(J$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A53,Data!$G$4:$L$17,4,0)</f>
-        <v>-65.180000000000007</v>
+        <v>-65.187499999999702</v>
       </c>
       <c r="K53">
         <f>-VLOOKUP(K$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A53,Data!$G$4:$L$17,4,0)</f>
@@ -3615,19 +3615,19 @@
       </c>
       <c r="L53">
         <f>-VLOOKUP(L$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A53,Data!$G$4:$L$17,4,0)</f>
-        <v>53.16</v>
+        <v>52.875</v>
       </c>
       <c r="M53">
         <f>-VLOOKUP(M$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A53,Data!$G$4:$L$17,4,0)</f>
-        <v>19.22</v>
+        <v>19.0833333333333</v>
       </c>
       <c r="N53">
         <f>-VLOOKUP(N$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A53,Data!$G$4:$L$17,4,0)</f>
-        <v>-5.0799999999999983</v>
+        <v>-5.3125</v>
       </c>
       <c r="O53">
         <f>-VLOOKUP(O$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A53,Data!$G$4:$L$17,4,0)</f>
-        <v>62.3</v>
+        <v>62.0416666666667</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3636,43 +3636,43 @@
       </c>
       <c r="B54">
         <f>-VLOOKUP(B$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A54,Data!$G$4:$L$17,4,0)</f>
-        <v>11.38</v>
+        <v>11.3958333333333</v>
       </c>
       <c r="C54">
         <f>-VLOOKUP(C$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A54,Data!$G$4:$L$17,4,0)</f>
-        <v>-22.159999999999997</v>
+        <v>-22.4166666666667</v>
       </c>
       <c r="D54">
         <f>-VLOOKUP(D$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A54,Data!$G$4:$L$17,4,0)</f>
-        <v>8.1199999999999992</v>
+        <v>8.0833333333333002</v>
       </c>
       <c r="E54">
         <f>-VLOOKUP(E$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A54,Data!$G$4:$L$17,4,0)</f>
-        <v>7.02</v>
+        <v>6.9791666666666998</v>
       </c>
       <c r="F54">
         <f>-VLOOKUP(F$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A54,Data!$G$4:$L$17,4,0)</f>
-        <v>-3.2399999999999984</v>
+        <v>-3.3541666666666998</v>
       </c>
       <c r="G54">
         <f>-VLOOKUP(G$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A54,Data!$G$4:$L$17,4,0)</f>
-        <v>-65.42</v>
+        <v>-50.8958333333333</v>
       </c>
       <c r="H54">
         <f>-VLOOKUP(H$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A54,Data!$G$4:$L$17,4,0)</f>
-        <v>-34.979999999999997</v>
+        <v>-34.6875</v>
       </c>
       <c r="I54">
         <f>-VLOOKUP(I$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A54,Data!$G$4:$L$17,4,0)</f>
-        <v>-92.9</v>
+        <v>-80.6041666666667</v>
       </c>
       <c r="J54">
         <f>-VLOOKUP(J$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A54,Data!$G$4:$L$17,4,0)</f>
-        <v>-118.34</v>
+        <v>-118.0624999999997</v>
       </c>
       <c r="K54">
         <f>-VLOOKUP(K$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A54,Data!$G$4:$L$17,4,0)</f>
-        <v>-53.16</v>
+        <v>-52.875</v>
       </c>
       <c r="L54">
         <f>-VLOOKUP(L$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A54,Data!$G$4:$L$17,4,0)</f>
@@ -3680,15 +3680,15 @@
       </c>
       <c r="M54">
         <f>-VLOOKUP(M$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A54,Data!$G$4:$L$17,4,0)</f>
-        <v>-33.94</v>
+        <v>-33.7916666666667</v>
       </c>
       <c r="N54">
         <f>-VLOOKUP(N$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A54,Data!$G$4:$L$17,4,0)</f>
-        <v>-58.239999999999995</v>
+        <v>-58.1875</v>
       </c>
       <c r="O54">
         <f>-VLOOKUP(O$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A54,Data!$G$4:$L$17,4,0)</f>
-        <v>9.14</v>
+        <v>9.1666666666666998</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3697,47 +3697,47 @@
       </c>
       <c r="B55">
         <f>-VLOOKUP(B$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A55,Data!$G$4:$L$17,4,0)</f>
-        <v>45.32</v>
+        <v>45.1875</v>
       </c>
       <c r="C55">
         <f>-VLOOKUP(C$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A55,Data!$G$4:$L$17,4,0)</f>
-        <v>11.780000000000001</v>
+        <v>11.375</v>
       </c>
       <c r="D55">
         <f>-VLOOKUP(D$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A55,Data!$G$4:$L$17,4,0)</f>
-        <v>42.059999999999995</v>
+        <v>41.875</v>
       </c>
       <c r="E55">
         <f>-VLOOKUP(E$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A55,Data!$G$4:$L$17,4,0)</f>
-        <v>40.959999999999994</v>
+        <v>40.7708333333334</v>
       </c>
       <c r="F55">
         <f>-VLOOKUP(F$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A55,Data!$G$4:$L$17,4,0)</f>
-        <v>30.7</v>
+        <v>30.4375</v>
       </c>
       <c r="G55">
         <f>-VLOOKUP(G$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A55,Data!$G$4:$L$17,4,0)</f>
-        <v>-31.480000000000004</v>
+        <v>-17.1041666666666</v>
       </c>
       <c r="H55">
         <f>-VLOOKUP(H$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A55,Data!$G$4:$L$17,4,0)</f>
-        <v>-1.0399999999999991</v>
+        <v>-0.89583333333330017</v>
       </c>
       <c r="I55">
         <f>-VLOOKUP(I$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A55,Data!$G$4:$L$17,4,0)</f>
-        <v>-58.960000000000008</v>
+        <v>-46.8125</v>
       </c>
       <c r="J55">
         <f>-VLOOKUP(J$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A55,Data!$G$4:$L$17,4,0)</f>
-        <v>-84.4</v>
+        <v>-84.270833333333002</v>
       </c>
       <c r="K55">
         <f>-VLOOKUP(K$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A55,Data!$G$4:$L$17,4,0)</f>
-        <v>-19.22</v>
+        <v>-19.0833333333333</v>
       </c>
       <c r="L55">
         <f>-VLOOKUP(L$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A55,Data!$G$4:$L$17,4,0)</f>
-        <v>33.94</v>
+        <v>33.7916666666667</v>
       </c>
       <c r="M55">
         <f>-VLOOKUP(M$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A55,Data!$G$4:$L$17,4,0)</f>
@@ -3745,11 +3745,11 @@
       </c>
       <c r="N55">
         <f>-VLOOKUP(N$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A55,Data!$G$4:$L$17,4,0)</f>
-        <v>-24.299999999999997</v>
+        <v>-24.3958333333333</v>
       </c>
       <c r="O55">
         <f>-VLOOKUP(O$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A55,Data!$G$4:$L$17,4,0)</f>
-        <v>43.08</v>
+        <v>42.9583333333334</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -3758,51 +3758,51 @@
       </c>
       <c r="B56">
         <f>-VLOOKUP(B$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A56,Data!$G$4:$L$17,4,0)</f>
-        <v>69.61999999999999</v>
+        <v>69.5833333333333</v>
       </c>
       <c r="C56">
         <f>-VLOOKUP(C$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A56,Data!$G$4:$L$17,4,0)</f>
-        <v>36.08</v>
+        <v>35.7708333333333</v>
       </c>
       <c r="D56">
         <f>-VLOOKUP(D$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A56,Data!$G$4:$L$17,4,0)</f>
-        <v>66.36</v>
+        <v>66.2708333333333</v>
       </c>
       <c r="E56">
         <f>-VLOOKUP(E$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A56,Data!$G$4:$L$17,4,0)</f>
-        <v>65.259999999999991</v>
+        <v>65.1666666666667</v>
       </c>
       <c r="F56">
         <f>-VLOOKUP(F$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A56,Data!$G$4:$L$17,4,0)</f>
-        <v>55</v>
+        <v>54.8333333333333</v>
       </c>
       <c r="G56">
         <f>-VLOOKUP(G$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A56,Data!$G$4:$L$17,4,0)</f>
-        <v>-7.1800000000000068</v>
+        <v>7.2916666666666998</v>
       </c>
       <c r="H56">
         <f>-VLOOKUP(H$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A56,Data!$G$4:$L$17,4,0)</f>
-        <v>23.259999999999998</v>
+        <v>23.5</v>
       </c>
       <c r="I56">
         <f>-VLOOKUP(I$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A56,Data!$G$4:$L$17,4,0)</f>
-        <v>-34.660000000000011</v>
+        <v>-22.4166666666667</v>
       </c>
       <c r="J56">
         <f>-VLOOKUP(J$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A56,Data!$G$4:$L$17,4,0)</f>
-        <v>-60.100000000000009</v>
+        <v>-59.874999999999702</v>
       </c>
       <c r="K56">
         <f>-VLOOKUP(K$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A56,Data!$G$4:$L$17,4,0)</f>
-        <v>5.0799999999999983</v>
+        <v>5.3125</v>
       </c>
       <c r="L56">
         <f>-VLOOKUP(L$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A56,Data!$G$4:$L$17,4,0)</f>
-        <v>58.239999999999995</v>
+        <v>58.1875</v>
       </c>
       <c r="M56">
         <f>-VLOOKUP(M$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A56,Data!$G$4:$L$17,4,0)</f>
-        <v>24.299999999999997</v>
+        <v>24.3958333333333</v>
       </c>
       <c r="N56">
         <f>-VLOOKUP(N$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A56,Data!$G$4:$L$17,4,0)</f>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="O56">
         <f>-VLOOKUP(O$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A56,Data!$G$4:$L$17,4,0)</f>
-        <v>67.38</v>
+        <v>67.3541666666667</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -3819,55 +3819,55 @@
       </c>
       <c r="B57">
         <f>-VLOOKUP(B$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A57,Data!$G$4:$L$17,4,0)</f>
-        <v>2.2400000000000002</v>
+        <v>2.2291666666666003</v>
       </c>
       <c r="C57">
         <f>-VLOOKUP(C$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A57,Data!$G$4:$L$17,4,0)</f>
-        <v>-31.299999999999997</v>
+        <v>-31.5833333333334</v>
       </c>
       <c r="D57">
         <f>-VLOOKUP(D$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A57,Data!$G$4:$L$17,4,0)</f>
-        <v>-1.0200000000000014</v>
+        <v>-1.0833333333333997</v>
       </c>
       <c r="E57">
         <f>-VLOOKUP(E$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A57,Data!$G$4:$L$17,4,0)</f>
-        <v>-2.120000000000001</v>
+        <v>-2.1875</v>
       </c>
       <c r="F57">
         <f>-VLOOKUP(F$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A57,Data!$G$4:$L$17,4,0)</f>
-        <v>-12.379999999999999</v>
+        <v>-12.5208333333334</v>
       </c>
       <c r="G57">
         <f>-VLOOKUP(G$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A57,Data!$G$4:$L$17,4,0)</f>
-        <v>-74.56</v>
+        <v>-60.0625</v>
       </c>
       <c r="H57">
         <f>-VLOOKUP(H$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A57,Data!$G$4:$L$17,4,0)</f>
-        <v>-44.12</v>
+        <v>-43.8541666666667</v>
       </c>
       <c r="I57">
         <f>-VLOOKUP(I$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A57,Data!$G$4:$L$17,4,0)</f>
-        <v>-102.04</v>
+        <v>-89.7708333333334</v>
       </c>
       <c r="J57">
         <f>-VLOOKUP(J$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A57,Data!$G$4:$L$17,4,0)</f>
-        <v>-127.48</v>
+        <v>-127.2291666666664</v>
       </c>
       <c r="K57">
         <f>-VLOOKUP(K$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A57,Data!$G$4:$L$17,4,0)</f>
-        <v>-62.3</v>
+        <v>-62.0416666666667</v>
       </c>
       <c r="L57">
         <f>-VLOOKUP(L$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A57,Data!$G$4:$L$17,4,0)</f>
-        <v>-9.14</v>
+        <v>-9.1666666666666998</v>
       </c>
       <c r="M57">
         <f>-VLOOKUP(M$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A57,Data!$G$4:$L$17,4,0)</f>
-        <v>-43.08</v>
+        <v>-42.9583333333334</v>
       </c>
       <c r="N57">
         <f>-VLOOKUP(N$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A57,Data!$G$4:$L$17,4,0)</f>
-        <v>-67.38</v>
+        <v>-67.3541666666667</v>
       </c>
       <c r="O57">
         <f>-VLOOKUP(O$43,Data!$G$4:$L$17,4,0) + VLOOKUP($A57,Data!$G$4:$L$17,4,0)</f>
@@ -3933,55 +3933,55 @@
       </c>
       <c r="C64">
         <f>-VLOOKUP(C$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A64,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.87199999999999989</v>
+        <v>-0.88541666666669983</v>
       </c>
       <c r="D64">
         <f>-VLOOKUP(D$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A64,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.77400000000000091</v>
+        <v>-0.77916666666670409</v>
       </c>
       <c r="E64">
         <f>-VLOOKUP(E$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A64,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.74799999999999756</v>
+        <v>-0.76250000000000284</v>
       </c>
       <c r="F64">
         <f>-VLOOKUP(F$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A64,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.9819999999999993</v>
+        <v>-1.9812500000000028</v>
       </c>
       <c r="G64">
         <f>-VLOOKUP(G$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A64,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.653999999999904</v>
+        <v>-1.6708333333333982</v>
       </c>
       <c r="H64">
         <f>-VLOOKUP(H$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A64,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.6120000000000019</v>
+        <v>-1.6270833333334025</v>
       </c>
       <c r="I64">
         <f>-VLOOKUP(I$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A64,Data!$G$4:$L$17,5,0)</f>
-        <v>-2.0399999999999991</v>
+        <v>-2.0562499999999986</v>
       </c>
       <c r="J64">
         <f>-VLOOKUP(J$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A64,Data!$G$4:$L$17,5,0)</f>
-        <v>-2.9759999999999991</v>
+        <v>-3.0208333333333997</v>
       </c>
       <c r="K64">
         <f>-VLOOKUP(K$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A64,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.6920000000000002</v>
+        <v>-1.7020833333333982</v>
       </c>
       <c r="L64">
         <f>-VLOOKUP(L$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A64,Data!$G$4:$L$17,5,0)</f>
-        <v>-2.0600000000000023</v>
+        <v>-2.0541666666667027</v>
       </c>
       <c r="M64">
         <f>-VLOOKUP(M$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A64,Data!$G$4:$L$17,5,0)</f>
-        <v>-2.0900000000000034</v>
+        <v>-2.1145833333333997</v>
       </c>
       <c r="N64">
         <f>-VLOOKUP(N$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A64,Data!$G$4:$L$17,5,0)</f>
-        <v>-2.5159999999999982</v>
+        <v>-2.5458333333333982</v>
       </c>
       <c r="O64">
         <f>-VLOOKUP(O$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A64,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.67999999999999972</v>
+        <v>-0.67916666666670267</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="B65">
         <f>-VLOOKUP(B$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A65,Data!$G$4:$L$17,5,0)</f>
-        <v>0.87199999999999989</v>
+        <v>0.88541666666669983</v>
       </c>
       <c r="C65">
         <f>-VLOOKUP(C$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A65,Data!$G$4:$L$17,5,0)</f>
@@ -3998,51 +3998,51 @@
       </c>
       <c r="D65">
         <f>-VLOOKUP(D$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A65,Data!$G$4:$L$17,5,0)</f>
-        <v>9.7999999999998977E-2</v>
+        <v>0.10624999999999574</v>
       </c>
       <c r="E65">
         <f>-VLOOKUP(E$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A65,Data!$G$4:$L$17,5,0)</f>
-        <v>0.12400000000000233</v>
+        <v>0.12291666666669698</v>
       </c>
       <c r="F65">
         <f>-VLOOKUP(F$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A65,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.1099999999999994</v>
+        <v>-1.095833333333303</v>
       </c>
       <c r="G65">
         <f>-VLOOKUP(G$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A65,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.78199999999990411</v>
+        <v>-0.7854166666666984</v>
       </c>
       <c r="H65">
         <f>-VLOOKUP(H$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A65,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.74000000000000199</v>
+        <v>-0.74166666666670267</v>
       </c>
       <c r="I65">
         <f>-VLOOKUP(I$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A65,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.1679999999999993</v>
+        <v>-1.1708333333332988</v>
       </c>
       <c r="J65">
         <f>-VLOOKUP(J$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A65,Data!$G$4:$L$17,5,0)</f>
-        <v>-2.1039999999999992</v>
+        <v>-2.1354166666666998</v>
       </c>
       <c r="K65">
         <f>-VLOOKUP(K$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A65,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.82000000000000028</v>
+        <v>-0.8166666666666984</v>
       </c>
       <c r="L65">
         <f>-VLOOKUP(L$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A65,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.1880000000000024</v>
+        <v>-1.1687500000000028</v>
       </c>
       <c r="M65">
         <f>-VLOOKUP(M$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A65,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.2180000000000035</v>
+        <v>-1.2291666666666998</v>
       </c>
       <c r="N65">
         <f>-VLOOKUP(N$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A65,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.6439999999999984</v>
+        <v>-1.6604166666666984</v>
       </c>
       <c r="O65">
         <f>-VLOOKUP(O$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A65,Data!$G$4:$L$17,5,0)</f>
-        <v>0.19200000000000017</v>
+        <v>0.20624999999999716</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -4051,11 +4051,11 @@
       </c>
       <c r="B66">
         <f>-VLOOKUP(B$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A66,Data!$G$4:$L$17,5,0)</f>
-        <v>0.77400000000000091</v>
+        <v>0.77916666666670409</v>
       </c>
       <c r="C66">
         <f>-VLOOKUP(C$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A66,Data!$G$4:$L$17,5,0)</f>
-        <v>-9.7999999999998977E-2</v>
+        <v>-0.10624999999999574</v>
       </c>
       <c r="D66">
         <f>-VLOOKUP(D$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A66,Data!$G$4:$L$17,5,0)</f>
@@ -4063,47 +4063,47 @@
       </c>
       <c r="E66">
         <f>-VLOOKUP(E$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A66,Data!$G$4:$L$17,5,0)</f>
-        <v>2.6000000000003354E-2</v>
+        <v>1.6666666666701246E-2</v>
       </c>
       <c r="F66">
         <f>-VLOOKUP(F$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A66,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.2079999999999984</v>
+        <v>-1.2020833333332988</v>
       </c>
       <c r="G66">
         <f>-VLOOKUP(G$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A66,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.87999999999990308</v>
+        <v>-0.89166666666669414</v>
       </c>
       <c r="H66">
         <f>-VLOOKUP(H$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A66,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.83800000000000097</v>
+        <v>-0.8479166666666984</v>
       </c>
       <c r="I66">
         <f>-VLOOKUP(I$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A66,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.2659999999999982</v>
+        <v>-1.2770833333332945</v>
       </c>
       <c r="J66">
         <f>-VLOOKUP(J$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A66,Data!$G$4:$L$17,5,0)</f>
-        <v>-2.2019999999999982</v>
+        <v>-2.2416666666666956</v>
       </c>
       <c r="K66">
         <f>-VLOOKUP(K$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A66,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.91799999999999926</v>
+        <v>-0.92291666666669414</v>
       </c>
       <c r="L66">
         <f>-VLOOKUP(L$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A66,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.2860000000000014</v>
+        <v>-1.2749999999999986</v>
       </c>
       <c r="M66">
         <f>-VLOOKUP(M$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A66,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.3160000000000025</v>
+        <v>-1.3354166666666956</v>
       </c>
       <c r="N66">
         <f>-VLOOKUP(N$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A66,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.7419999999999973</v>
+        <v>-1.7666666666666941</v>
       </c>
       <c r="O66">
         <f>-VLOOKUP(O$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A66,Data!$G$4:$L$17,5,0)</f>
-        <v>9.4000000000001194E-2</v>
+        <v>0.10000000000000142</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -4112,15 +4112,15 @@
       </c>
       <c r="B67">
         <f>-VLOOKUP(B$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A67,Data!$G$4:$L$17,5,0)</f>
-        <v>0.74799999999999756</v>
+        <v>0.76250000000000284</v>
       </c>
       <c r="C67">
         <f>-VLOOKUP(C$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A67,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.12400000000000233</v>
+        <v>-0.12291666666669698</v>
       </c>
       <c r="D67">
         <f>-VLOOKUP(D$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A67,Data!$G$4:$L$17,5,0)</f>
-        <v>-2.6000000000003354E-2</v>
+        <v>-1.6666666666701246E-2</v>
       </c>
       <c r="E67">
         <f>-VLOOKUP(E$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A67,Data!$G$4:$L$17,5,0)</f>
@@ -4128,43 +4128,43 @@
       </c>
       <c r="F67">
         <f>-VLOOKUP(F$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A67,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.2340000000000018</v>
+        <v>-1.21875</v>
       </c>
       <c r="G67">
         <f>-VLOOKUP(G$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A67,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.90599999999990644</v>
+        <v>-0.90833333333339539</v>
       </c>
       <c r="H67">
         <f>-VLOOKUP(H$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A67,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.86400000000000432</v>
+        <v>-0.86458333333339965</v>
       </c>
       <c r="I67">
         <f>-VLOOKUP(I$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A67,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.2920000000000016</v>
+        <v>-1.2937499999999957</v>
       </c>
       <c r="J67">
         <f>-VLOOKUP(J$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A67,Data!$G$4:$L$17,5,0)</f>
-        <v>-2.2280000000000015</v>
+        <v>-2.2583333333333968</v>
       </c>
       <c r="K67">
         <f>-VLOOKUP(K$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A67,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.94400000000000261</v>
+        <v>-0.93958333333339539</v>
       </c>
       <c r="L67">
         <f>-VLOOKUP(L$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A67,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.3120000000000047</v>
+        <v>-1.2916666666666998</v>
       </c>
       <c r="M67">
         <f>-VLOOKUP(M$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A67,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.3420000000000059</v>
+        <v>-1.3520833333333968</v>
       </c>
       <c r="N67">
         <f>-VLOOKUP(N$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A67,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.7680000000000007</v>
+        <v>-1.7833333333333954</v>
       </c>
       <c r="O67">
         <f>-VLOOKUP(O$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A67,Data!$G$4:$L$17,5,0)</f>
-        <v>6.799999999999784E-2</v>
+        <v>8.3333333333300175E-2</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -4173,19 +4173,19 @@
       </c>
       <c r="B68">
         <f>-VLOOKUP(B$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A68,Data!$G$4:$L$17,5,0)</f>
-        <v>1.9819999999999993</v>
+        <v>1.9812500000000028</v>
       </c>
       <c r="C68">
         <f>-VLOOKUP(C$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A68,Data!$G$4:$L$17,5,0)</f>
-        <v>1.1099999999999994</v>
+        <v>1.095833333333303</v>
       </c>
       <c r="D68">
         <f>-VLOOKUP(D$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A68,Data!$G$4:$L$17,5,0)</f>
-        <v>1.2079999999999984</v>
+        <v>1.2020833333332988</v>
       </c>
       <c r="E68">
         <f>-VLOOKUP(E$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A68,Data!$G$4:$L$17,5,0)</f>
-        <v>1.2340000000000018</v>
+        <v>1.21875</v>
       </c>
       <c r="F68">
         <f>-VLOOKUP(F$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A68,Data!$G$4:$L$17,5,0)</f>
@@ -4193,39 +4193,39 @@
       </c>
       <c r="G68">
         <f>-VLOOKUP(G$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A68,Data!$G$4:$L$17,5,0)</f>
-        <v>0.32800000000009533</v>
+        <v>0.31041666666660461</v>
       </c>
       <c r="H68">
         <f>-VLOOKUP(H$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A68,Data!$G$4:$L$17,5,0)</f>
-        <v>0.36999999999999744</v>
+        <v>0.35416666666660035</v>
       </c>
       <c r="I68">
         <f>-VLOOKUP(I$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A68,Data!$G$4:$L$17,5,0)</f>
-        <v>-5.7999999999999829E-2</v>
+        <v>-7.4999999999995737E-2</v>
       </c>
       <c r="J68">
         <f>-VLOOKUP(J$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A68,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.99399999999999977</v>
+        <v>-1.0395833333333968</v>
       </c>
       <c r="K68">
         <f>-VLOOKUP(K$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A68,Data!$G$4:$L$17,5,0)</f>
-        <v>0.28999999999999915</v>
+        <v>0.27916666666660461</v>
       </c>
       <c r="L68">
         <f>-VLOOKUP(L$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A68,Data!$G$4:$L$17,5,0)</f>
-        <v>-7.8000000000002956E-2</v>
+        <v>-7.2916666666699825E-2</v>
       </c>
       <c r="M68">
         <f>-VLOOKUP(M$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A68,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.10800000000000409</v>
+        <v>-0.13333333333339681</v>
       </c>
       <c r="N68">
         <f>-VLOOKUP(N$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A68,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.53399999999999892</v>
+        <v>-0.56458333333339539</v>
       </c>
       <c r="O68">
         <f>-VLOOKUP(O$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A68,Data!$G$4:$L$17,5,0)</f>
-        <v>1.3019999999999996</v>
+        <v>1.3020833333333002</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -4234,23 +4234,23 @@
       </c>
       <c r="B69">
         <f>-VLOOKUP(B$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A69,Data!$G$4:$L$17,5,0)</f>
-        <v>1.653999999999904</v>
+        <v>1.6708333333333982</v>
       </c>
       <c r="C69">
         <f>-VLOOKUP(C$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A69,Data!$G$4:$L$17,5,0)</f>
-        <v>0.78199999999990411</v>
+        <v>0.7854166666666984</v>
       </c>
       <c r="D69">
         <f>-VLOOKUP(D$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A69,Data!$G$4:$L$17,5,0)</f>
-        <v>0.87999999999990308</v>
+        <v>0.89166666666669414</v>
       </c>
       <c r="E69">
         <f>-VLOOKUP(E$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A69,Data!$G$4:$L$17,5,0)</f>
-        <v>0.90599999999990644</v>
+        <v>0.90833333333339539</v>
       </c>
       <c r="F69">
         <f>-VLOOKUP(F$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A69,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.32800000000009533</v>
+        <v>-0.31041666666660461</v>
       </c>
       <c r="G69">
         <f>-VLOOKUP(G$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A69,Data!$G$4:$L$17,5,0)</f>
@@ -4258,35 +4258,35 @@
       </c>
       <c r="H69">
         <f>-VLOOKUP(H$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A69,Data!$G$4:$L$17,5,0)</f>
-        <v>4.1999999999902116E-2</v>
+        <v>4.3749999999995737E-2</v>
       </c>
       <c r="I69">
         <f>-VLOOKUP(I$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A69,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.38600000000009516</v>
+        <v>-0.38541666666660035</v>
       </c>
       <c r="J69">
         <f>-VLOOKUP(J$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A69,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.3220000000000951</v>
+        <v>-1.3500000000000014</v>
       </c>
       <c r="K69">
         <f>-VLOOKUP(K$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A69,Data!$G$4:$L$17,5,0)</f>
-        <v>-3.8000000000096179E-2</v>
+        <v>-3.125E-2</v>
       </c>
       <c r="L69">
         <f>-VLOOKUP(L$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A69,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.40600000000009828</v>
+        <v>-0.38333333333330444</v>
       </c>
       <c r="M69">
         <f>-VLOOKUP(M$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A69,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.43600000000009942</v>
+        <v>-0.44375000000000142</v>
       </c>
       <c r="N69">
         <f>-VLOOKUP(N$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A69,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.86200000000009425</v>
+        <v>-0.875</v>
       </c>
       <c r="O69">
         <f>-VLOOKUP(O$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A69,Data!$G$4:$L$17,5,0)</f>
-        <v>0.97399999999990428</v>
+        <v>0.99166666666669556</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -4295,27 +4295,27 @@
       </c>
       <c r="B70">
         <f>-VLOOKUP(B$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A70,Data!$G$4:$L$17,5,0)</f>
-        <v>1.6120000000000019</v>
+        <v>1.6270833333334025</v>
       </c>
       <c r="C70">
         <f>-VLOOKUP(C$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A70,Data!$G$4:$L$17,5,0)</f>
-        <v>0.74000000000000199</v>
+        <v>0.74166666666670267</v>
       </c>
       <c r="D70">
         <f>-VLOOKUP(D$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A70,Data!$G$4:$L$17,5,0)</f>
-        <v>0.83800000000000097</v>
+        <v>0.8479166666666984</v>
       </c>
       <c r="E70">
         <f>-VLOOKUP(E$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A70,Data!$G$4:$L$17,5,0)</f>
-        <v>0.86400000000000432</v>
+        <v>0.86458333333339965</v>
       </c>
       <c r="F70">
         <f>-VLOOKUP(F$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A70,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.36999999999999744</v>
+        <v>-0.35416666666660035</v>
       </c>
       <c r="G70">
         <f>-VLOOKUP(G$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A70,Data!$G$4:$L$17,5,0)</f>
-        <v>-4.1999999999902116E-2</v>
+        <v>-4.3749999999995737E-2</v>
       </c>
       <c r="H70">
         <f>-VLOOKUP(H$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A70,Data!$G$4:$L$17,5,0)</f>
@@ -4323,31 +4323,31 @@
       </c>
       <c r="I70">
         <f>-VLOOKUP(I$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A70,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.42799999999999727</v>
+        <v>-0.42916666666659609</v>
       </c>
       <c r="J70">
         <f>-VLOOKUP(J$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A70,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.3639999999999972</v>
+        <v>-1.3937499999999972</v>
       </c>
       <c r="K70">
         <f>-VLOOKUP(K$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A70,Data!$G$4:$L$17,5,0)</f>
-        <v>-7.9999999999998295E-2</v>
+        <v>-7.4999999999995737E-2</v>
       </c>
       <c r="L70">
         <f>-VLOOKUP(L$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A70,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.4480000000000004</v>
+        <v>-0.42708333333330017</v>
       </c>
       <c r="M70">
         <f>-VLOOKUP(M$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A70,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.47800000000000153</v>
+        <v>-0.48749999999999716</v>
       </c>
       <c r="N70">
         <f>-VLOOKUP(N$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A70,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.90399999999999636</v>
+        <v>-0.91874999999999574</v>
       </c>
       <c r="O70">
         <f>-VLOOKUP(O$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A70,Data!$G$4:$L$17,5,0)</f>
-        <v>0.93200000000000216</v>
+        <v>0.94791666666669983</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -4356,31 +4356,31 @@
       </c>
       <c r="B71">
         <f>-VLOOKUP(B$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A71,Data!$G$4:$L$17,5,0)</f>
-        <v>2.0399999999999991</v>
+        <v>2.0562499999999986</v>
       </c>
       <c r="C71">
         <f>-VLOOKUP(C$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A71,Data!$G$4:$L$17,5,0)</f>
-        <v>1.1679999999999993</v>
+        <v>1.1708333333332988</v>
       </c>
       <c r="D71">
         <f>-VLOOKUP(D$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A71,Data!$G$4:$L$17,5,0)</f>
-        <v>1.2659999999999982</v>
+        <v>1.2770833333332945</v>
       </c>
       <c r="E71">
         <f>-VLOOKUP(E$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A71,Data!$G$4:$L$17,5,0)</f>
-        <v>1.2920000000000016</v>
+        <v>1.2937499999999957</v>
       </c>
       <c r="F71">
         <f>-VLOOKUP(F$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A71,Data!$G$4:$L$17,5,0)</f>
-        <v>5.7999999999999829E-2</v>
+        <v>7.4999999999995737E-2</v>
       </c>
       <c r="G71">
         <f>-VLOOKUP(G$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A71,Data!$G$4:$L$17,5,0)</f>
-        <v>0.38600000000009516</v>
+        <v>0.38541666666660035</v>
       </c>
       <c r="H71">
         <f>-VLOOKUP(H$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A71,Data!$G$4:$L$17,5,0)</f>
-        <v>0.42799999999999727</v>
+        <v>0.42916666666659609</v>
       </c>
       <c r="I71">
         <f>-VLOOKUP(I$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A71,Data!$G$4:$L$17,5,0)</f>
@@ -4388,27 +4388,27 @@
       </c>
       <c r="J71">
         <f>-VLOOKUP(J$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A71,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.93599999999999994</v>
+        <v>-0.96458333333340107</v>
       </c>
       <c r="K71">
         <f>-VLOOKUP(K$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A71,Data!$G$4:$L$17,5,0)</f>
-        <v>0.34799999999999898</v>
+        <v>0.35416666666660035</v>
       </c>
       <c r="L71">
         <f>-VLOOKUP(L$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A71,Data!$G$4:$L$17,5,0)</f>
-        <v>-2.0000000000003126E-2</v>
+        <v>2.0833333332959114E-3</v>
       </c>
       <c r="M71">
         <f>-VLOOKUP(M$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A71,Data!$G$4:$L$17,5,0)</f>
-        <v>-5.0000000000004263E-2</v>
+        <v>-5.8333333333401072E-2</v>
       </c>
       <c r="N71">
         <f>-VLOOKUP(N$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A71,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.47599999999999909</v>
+        <v>-0.48958333333339965</v>
       </c>
       <c r="O71">
         <f>-VLOOKUP(O$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A71,Data!$G$4:$L$17,5,0)</f>
-        <v>1.3599999999999994</v>
+        <v>1.3770833333332959</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -4417,35 +4417,35 @@
       </c>
       <c r="B72">
         <f>-VLOOKUP(B$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A72,Data!$G$4:$L$17,5,0)</f>
-        <v>2.9759999999999991</v>
+        <v>3.0208333333333997</v>
       </c>
       <c r="C72">
         <f>-VLOOKUP(C$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A72,Data!$G$4:$L$17,5,0)</f>
-        <v>2.1039999999999992</v>
+        <v>2.1354166666666998</v>
       </c>
       <c r="D72">
         <f>-VLOOKUP(D$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A72,Data!$G$4:$L$17,5,0)</f>
-        <v>2.2019999999999982</v>
+        <v>2.2416666666666956</v>
       </c>
       <c r="E72">
         <f>-VLOOKUP(E$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A72,Data!$G$4:$L$17,5,0)</f>
-        <v>2.2280000000000015</v>
+        <v>2.2583333333333968</v>
       </c>
       <c r="F72">
         <f>-VLOOKUP(F$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A72,Data!$G$4:$L$17,5,0)</f>
-        <v>0.99399999999999977</v>
+        <v>1.0395833333333968</v>
       </c>
       <c r="G72">
         <f>-VLOOKUP(G$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A72,Data!$G$4:$L$17,5,0)</f>
-        <v>1.3220000000000951</v>
+        <v>1.3500000000000014</v>
       </c>
       <c r="H72">
         <f>-VLOOKUP(H$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A72,Data!$G$4:$L$17,5,0)</f>
-        <v>1.3639999999999972</v>
+        <v>1.3937499999999972</v>
       </c>
       <c r="I72">
         <f>-VLOOKUP(I$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A72,Data!$G$4:$L$17,5,0)</f>
-        <v>0.93599999999999994</v>
+        <v>0.96458333333340107</v>
       </c>
       <c r="J72">
         <f>-VLOOKUP(J$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A72,Data!$G$4:$L$17,5,0)</f>
@@ -4453,23 +4453,23 @@
       </c>
       <c r="K72">
         <f>-VLOOKUP(K$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A72,Data!$G$4:$L$17,5,0)</f>
-        <v>1.2839999999999989</v>
+        <v>1.3187500000000014</v>
       </c>
       <c r="L72">
         <f>-VLOOKUP(L$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A72,Data!$G$4:$L$17,5,0)</f>
-        <v>0.91599999999999682</v>
+        <v>0.96666666666669698</v>
       </c>
       <c r="M72">
         <f>-VLOOKUP(M$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A72,Data!$G$4:$L$17,5,0)</f>
-        <v>0.88599999999999568</v>
+        <v>0.90625</v>
       </c>
       <c r="N72">
         <f>-VLOOKUP(N$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A72,Data!$G$4:$L$17,5,0)</f>
-        <v>0.46000000000000085</v>
+        <v>0.47500000000000142</v>
       </c>
       <c r="O72">
         <f>-VLOOKUP(O$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A72,Data!$G$4:$L$17,5,0)</f>
-        <v>2.2959999999999994</v>
+        <v>2.341666666666697</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -4478,39 +4478,39 @@
       </c>
       <c r="B73">
         <f>-VLOOKUP(B$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A73,Data!$G$4:$L$17,5,0)</f>
-        <v>1.6920000000000002</v>
+        <v>1.7020833333333982</v>
       </c>
       <c r="C73">
         <f>-VLOOKUP(C$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A73,Data!$G$4:$L$17,5,0)</f>
-        <v>0.82000000000000028</v>
+        <v>0.8166666666666984</v>
       </c>
       <c r="D73">
         <f>-VLOOKUP(D$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A73,Data!$G$4:$L$17,5,0)</f>
-        <v>0.91799999999999926</v>
+        <v>0.92291666666669414</v>
       </c>
       <c r="E73">
         <f>-VLOOKUP(E$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A73,Data!$G$4:$L$17,5,0)</f>
-        <v>0.94400000000000261</v>
+        <v>0.93958333333339539</v>
       </c>
       <c r="F73">
         <f>-VLOOKUP(F$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A73,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.28999999999999915</v>
+        <v>-0.27916666666660461</v>
       </c>
       <c r="G73">
         <f>-VLOOKUP(G$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A73,Data!$G$4:$L$17,5,0)</f>
-        <v>3.8000000000096179E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H73">
         <f>-VLOOKUP(H$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A73,Data!$G$4:$L$17,5,0)</f>
-        <v>7.9999999999998295E-2</v>
+        <v>7.4999999999995737E-2</v>
       </c>
       <c r="I73">
         <f>-VLOOKUP(I$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A73,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.34799999999999898</v>
+        <v>-0.35416666666660035</v>
       </c>
       <c r="J73">
         <f>-VLOOKUP(J$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A73,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.2839999999999989</v>
+        <v>-1.3187500000000014</v>
       </c>
       <c r="K73">
         <f>-VLOOKUP(K$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A73,Data!$G$4:$L$17,5,0)</f>
@@ -4518,19 +4518,19 @@
       </c>
       <c r="L73">
         <f>-VLOOKUP(L$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A73,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.3680000000000021</v>
+        <v>-0.35208333333330444</v>
       </c>
       <c r="M73">
         <f>-VLOOKUP(M$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A73,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.39800000000000324</v>
+        <v>-0.41250000000000142</v>
       </c>
       <c r="N73">
         <f>-VLOOKUP(N$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A73,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.82399999999999807</v>
+        <v>-0.84375</v>
       </c>
       <c r="O73">
         <f>-VLOOKUP(O$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A73,Data!$G$4:$L$17,5,0)</f>
-        <v>1.0120000000000005</v>
+        <v>1.0229166666666956</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -4539,43 +4539,43 @@
       </c>
       <c r="B74">
         <f>-VLOOKUP(B$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A74,Data!$G$4:$L$17,5,0)</f>
-        <v>2.0600000000000023</v>
+        <v>2.0541666666667027</v>
       </c>
       <c r="C74">
         <f>-VLOOKUP(C$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A74,Data!$G$4:$L$17,5,0)</f>
-        <v>1.1880000000000024</v>
+        <v>1.1687500000000028</v>
       </c>
       <c r="D74">
         <f>-VLOOKUP(D$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A74,Data!$G$4:$L$17,5,0)</f>
-        <v>1.2860000000000014</v>
+        <v>1.2749999999999986</v>
       </c>
       <c r="E74">
         <f>-VLOOKUP(E$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A74,Data!$G$4:$L$17,5,0)</f>
-        <v>1.3120000000000047</v>
+        <v>1.2916666666666998</v>
       </c>
       <c r="F74">
         <f>-VLOOKUP(F$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A74,Data!$G$4:$L$17,5,0)</f>
-        <v>7.8000000000002956E-2</v>
+        <v>7.2916666666699825E-2</v>
       </c>
       <c r="G74">
         <f>-VLOOKUP(G$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A74,Data!$G$4:$L$17,5,0)</f>
-        <v>0.40600000000009828</v>
+        <v>0.38333333333330444</v>
       </c>
       <c r="H74">
         <f>-VLOOKUP(H$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A74,Data!$G$4:$L$17,5,0)</f>
-        <v>0.4480000000000004</v>
+        <v>0.42708333333330017</v>
       </c>
       <c r="I74">
         <f>-VLOOKUP(I$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A74,Data!$G$4:$L$17,5,0)</f>
-        <v>2.0000000000003126E-2</v>
+        <v>-2.0833333332959114E-3</v>
       </c>
       <c r="J74">
         <f>-VLOOKUP(J$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A74,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.91599999999999682</v>
+        <v>-0.96666666666669698</v>
       </c>
       <c r="K74">
         <f>-VLOOKUP(K$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A74,Data!$G$4:$L$17,5,0)</f>
-        <v>0.3680000000000021</v>
+        <v>0.35208333333330444</v>
       </c>
       <c r="L74">
         <f>-VLOOKUP(L$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A74,Data!$G$4:$L$17,5,0)</f>
@@ -4583,15 +4583,15 @@
       </c>
       <c r="M74">
         <f>-VLOOKUP(M$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A74,Data!$G$4:$L$17,5,0)</f>
-        <v>-3.0000000000001137E-2</v>
+        <v>-6.0416666666696983E-2</v>
       </c>
       <c r="N74">
         <f>-VLOOKUP(N$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A74,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.45599999999999596</v>
+        <v>-0.49166666666669556</v>
       </c>
       <c r="O74">
         <f>-VLOOKUP(O$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A74,Data!$G$4:$L$17,5,0)</f>
-        <v>1.3800000000000026</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -4600,47 +4600,47 @@
       </c>
       <c r="B75">
         <f>-VLOOKUP(B$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A75,Data!$G$4:$L$17,5,0)</f>
-        <v>2.0900000000000034</v>
+        <v>2.1145833333333997</v>
       </c>
       <c r="C75">
         <f>-VLOOKUP(C$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A75,Data!$G$4:$L$17,5,0)</f>
-        <v>1.2180000000000035</v>
+        <v>1.2291666666666998</v>
       </c>
       <c r="D75">
         <f>-VLOOKUP(D$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A75,Data!$G$4:$L$17,5,0)</f>
-        <v>1.3160000000000025</v>
+        <v>1.3354166666666956</v>
       </c>
       <c r="E75">
         <f>-VLOOKUP(E$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A75,Data!$G$4:$L$17,5,0)</f>
-        <v>1.3420000000000059</v>
+        <v>1.3520833333333968</v>
       </c>
       <c r="F75">
         <f>-VLOOKUP(F$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A75,Data!$G$4:$L$17,5,0)</f>
-        <v>0.10800000000000409</v>
+        <v>0.13333333333339681</v>
       </c>
       <c r="G75">
         <f>-VLOOKUP(G$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A75,Data!$G$4:$L$17,5,0)</f>
-        <v>0.43600000000009942</v>
+        <v>0.44375000000000142</v>
       </c>
       <c r="H75">
         <f>-VLOOKUP(H$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A75,Data!$G$4:$L$17,5,0)</f>
-        <v>0.47800000000000153</v>
+        <v>0.48749999999999716</v>
       </c>
       <c r="I75">
         <f>-VLOOKUP(I$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A75,Data!$G$4:$L$17,5,0)</f>
-        <v>5.0000000000004263E-2</v>
+        <v>5.8333333333401072E-2</v>
       </c>
       <c r="J75">
         <f>-VLOOKUP(J$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A75,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.88599999999999568</v>
+        <v>-0.90625</v>
       </c>
       <c r="K75">
         <f>-VLOOKUP(K$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A75,Data!$G$4:$L$17,5,0)</f>
-        <v>0.39800000000000324</v>
+        <v>0.41250000000000142</v>
       </c>
       <c r="L75">
         <f>-VLOOKUP(L$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A75,Data!$G$4:$L$17,5,0)</f>
-        <v>3.0000000000001137E-2</v>
+        <v>6.0416666666696983E-2</v>
       </c>
       <c r="M75">
         <f>-VLOOKUP(M$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A75,Data!$G$4:$L$17,5,0)</f>
@@ -4648,11 +4648,11 @@
       </c>
       <c r="N75">
         <f>-VLOOKUP(N$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A75,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.42599999999999483</v>
+        <v>-0.43124999999999858</v>
       </c>
       <c r="O75">
         <f>-VLOOKUP(O$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A75,Data!$G$4:$L$17,5,0)</f>
-        <v>1.4100000000000037</v>
+        <v>1.435416666666697</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -4661,51 +4661,51 @@
       </c>
       <c r="B76">
         <f>-VLOOKUP(B$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A76,Data!$G$4:$L$17,5,0)</f>
-        <v>2.5159999999999982</v>
+        <v>2.5458333333333982</v>
       </c>
       <c r="C76">
         <f>-VLOOKUP(C$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A76,Data!$G$4:$L$17,5,0)</f>
-        <v>1.6439999999999984</v>
+        <v>1.6604166666666984</v>
       </c>
       <c r="D76">
         <f>-VLOOKUP(D$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A76,Data!$G$4:$L$17,5,0)</f>
-        <v>1.7419999999999973</v>
+        <v>1.7666666666666941</v>
       </c>
       <c r="E76">
         <f>-VLOOKUP(E$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A76,Data!$G$4:$L$17,5,0)</f>
-        <v>1.7680000000000007</v>
+        <v>1.7833333333333954</v>
       </c>
       <c r="F76">
         <f>-VLOOKUP(F$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A76,Data!$G$4:$L$17,5,0)</f>
-        <v>0.53399999999999892</v>
+        <v>0.56458333333339539</v>
       </c>
       <c r="G76">
         <f>-VLOOKUP(G$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A76,Data!$G$4:$L$17,5,0)</f>
-        <v>0.86200000000009425</v>
+        <v>0.875</v>
       </c>
       <c r="H76">
         <f>-VLOOKUP(H$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A76,Data!$G$4:$L$17,5,0)</f>
-        <v>0.90399999999999636</v>
+        <v>0.91874999999999574</v>
       </c>
       <c r="I76">
         <f>-VLOOKUP(I$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A76,Data!$G$4:$L$17,5,0)</f>
-        <v>0.47599999999999909</v>
+        <v>0.48958333333339965</v>
       </c>
       <c r="J76">
         <f>-VLOOKUP(J$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A76,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.46000000000000085</v>
+        <v>-0.47500000000000142</v>
       </c>
       <c r="K76">
         <f>-VLOOKUP(K$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A76,Data!$G$4:$L$17,5,0)</f>
-        <v>0.82399999999999807</v>
+        <v>0.84375</v>
       </c>
       <c r="L76">
         <f>-VLOOKUP(L$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A76,Data!$G$4:$L$17,5,0)</f>
-        <v>0.45599999999999596</v>
+        <v>0.49166666666669556</v>
       </c>
       <c r="M76">
         <f>-VLOOKUP(M$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A76,Data!$G$4:$L$17,5,0)</f>
-        <v>0.42599999999999483</v>
+        <v>0.43124999999999858</v>
       </c>
       <c r="N76">
         <f>-VLOOKUP(N$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A76,Data!$G$4:$L$17,5,0)</f>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O76">
         <f>-VLOOKUP(O$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A76,Data!$G$4:$L$17,5,0)</f>
-        <v>1.8359999999999985</v>
+        <v>1.8666666666666956</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -4722,55 +4722,55 @@
       </c>
       <c r="B77">
         <f>-VLOOKUP(B$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A77,Data!$G$4:$L$17,5,0)</f>
-        <v>0.67999999999999972</v>
+        <v>0.67916666666670267</v>
       </c>
       <c r="C77">
         <f>-VLOOKUP(C$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A77,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.19200000000000017</v>
+        <v>-0.20624999999999716</v>
       </c>
       <c r="D77">
         <f>-VLOOKUP(D$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A77,Data!$G$4:$L$17,5,0)</f>
-        <v>-9.4000000000001194E-2</v>
+        <v>-0.10000000000000142</v>
       </c>
       <c r="E77">
         <f>-VLOOKUP(E$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A77,Data!$G$4:$L$17,5,0)</f>
-        <v>-6.799999999999784E-2</v>
+        <v>-8.3333333333300175E-2</v>
       </c>
       <c r="F77">
         <f>-VLOOKUP(F$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A77,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.3019999999999996</v>
+        <v>-1.3020833333333002</v>
       </c>
       <c r="G77">
         <f>-VLOOKUP(G$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A77,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.97399999999990428</v>
+        <v>-0.99166666666669556</v>
       </c>
       <c r="H77">
         <f>-VLOOKUP(H$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A77,Data!$G$4:$L$17,5,0)</f>
-        <v>-0.93200000000000216</v>
+        <v>-0.94791666666669983</v>
       </c>
       <c r="I77">
         <f>-VLOOKUP(I$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A77,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.3599999999999994</v>
+        <v>-1.3770833333332959</v>
       </c>
       <c r="J77">
         <f>-VLOOKUP(J$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A77,Data!$G$4:$L$17,5,0)</f>
-        <v>-2.2959999999999994</v>
+        <v>-2.341666666666697</v>
       </c>
       <c r="K77">
         <f>-VLOOKUP(K$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A77,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.0120000000000005</v>
+        <v>-1.0229166666666956</v>
       </c>
       <c r="L77">
         <f>-VLOOKUP(L$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A77,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.3800000000000026</v>
+        <v>-1.375</v>
       </c>
       <c r="M77">
         <f>-VLOOKUP(M$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A77,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.4100000000000037</v>
+        <v>-1.435416666666697</v>
       </c>
       <c r="N77">
         <f>-VLOOKUP(N$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A77,Data!$G$4:$L$17,5,0)</f>
-        <v>-1.8359999999999985</v>
+        <v>-1.8666666666666956</v>
       </c>
       <c r="O77">
         <f>-VLOOKUP(O$63,Data!$G$4:$L$17,5,0) + VLOOKUP($A77,Data!$G$4:$L$17,5,0)</f>
@@ -4836,55 +4836,55 @@
       </c>
       <c r="C84">
         <f>-VLOOKUP(C$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A84,Data!$G$4:$L$17,6,0)</f>
-        <v>-13596.72</v>
+        <v>-13597</v>
       </c>
       <c r="D84">
         <f>-VLOOKUP(D$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A84,Data!$G$4:$L$17,6,0)</f>
-        <v>-2618.5600000000004</v>
+        <v>-2619.8333333333298</v>
       </c>
       <c r="E84">
         <f>-VLOOKUP(E$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A84,Data!$G$4:$L$17,6,0)</f>
-        <v>-824.24</v>
+        <v>-823.83333333333007</v>
       </c>
       <c r="F84">
         <f>-VLOOKUP(F$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A84,Data!$G$4:$L$17,6,0)</f>
-        <v>-7446.7199999999993</v>
+        <v>-7447.9166666666606</v>
       </c>
       <c r="G84">
         <f>-VLOOKUP(G$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A84,Data!$G$4:$L$17,6,0)</f>
-        <v>-26255.280000000002</v>
+        <v>-26255.416666666599</v>
       </c>
       <c r="H84">
         <f>-VLOOKUP(H$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A84,Data!$G$4:$L$17,6,0)</f>
-        <v>-47310.64</v>
+        <v>-47309.666666666599</v>
       </c>
       <c r="I84">
         <f>-VLOOKUP(I$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A84,Data!$G$4:$L$17,6,0)</f>
-        <v>-27504.400000000001</v>
+        <v>-27504.25</v>
       </c>
       <c r="J84">
         <f>-VLOOKUP(J$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A84,Data!$G$4:$L$17,6,0)</f>
-        <v>-28299.040000000001</v>
+        <v>-28302.75</v>
       </c>
       <c r="K84">
         <f>-VLOOKUP(K$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A84,Data!$G$4:$L$17,6,0)</f>
-        <v>-26953.84</v>
+        <v>-26953.75</v>
       </c>
       <c r="L84">
         <f>-VLOOKUP(L$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A84,Data!$G$4:$L$17,6,0)</f>
-        <v>-5174.96</v>
+        <v>-5173.3333333333303</v>
       </c>
       <c r="M84">
         <f>-VLOOKUP(M$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A84,Data!$G$4:$L$17,6,0)</f>
-        <v>-13220.8</v>
+        <v>-13220.416666666601</v>
       </c>
       <c r="N84">
         <f>-VLOOKUP(N$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A84,Data!$G$4:$L$17,6,0)</f>
-        <v>-22107.120000000003</v>
+        <v>-22105.833333333299</v>
       </c>
       <c r="O84">
         <f>-VLOOKUP(O$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A84,Data!$G$4:$L$17,6,0)</f>
-        <v>-1121.92</v>
+        <v>-1122.5833333333301</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B85">
         <f>-VLOOKUP(B$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A85,Data!$G$4:$L$17,6,0)</f>
-        <v>13596.72</v>
+        <v>13597</v>
       </c>
       <c r="C85">
         <f>-VLOOKUP(C$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A85,Data!$G$4:$L$17,6,0)</f>
@@ -4901,51 +4901,51 @@
       </c>
       <c r="D85">
         <f>-VLOOKUP(D$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A85,Data!$G$4:$L$17,6,0)</f>
-        <v>10978.16</v>
+        <v>10977.16666666667</v>
       </c>
       <c r="E85">
         <f>-VLOOKUP(E$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A85,Data!$G$4:$L$17,6,0)</f>
-        <v>12772.48</v>
+        <v>12773.16666666667</v>
       </c>
       <c r="F85">
         <f>-VLOOKUP(F$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A85,Data!$G$4:$L$17,6,0)</f>
-        <v>6150</v>
+        <v>6149.0833333333394</v>
       </c>
       <c r="G85">
         <f>-VLOOKUP(G$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A85,Data!$G$4:$L$17,6,0)</f>
-        <v>-12658.560000000001</v>
+        <v>-12658.416666666599</v>
       </c>
       <c r="H85">
         <f>-VLOOKUP(H$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A85,Data!$G$4:$L$17,6,0)</f>
-        <v>-33713.919999999998</v>
+        <v>-33712.666666666599</v>
       </c>
       <c r="I85">
         <f>-VLOOKUP(I$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A85,Data!$G$4:$L$17,6,0)</f>
-        <v>-13907.68</v>
+        <v>-13907.25</v>
       </c>
       <c r="J85">
         <f>-VLOOKUP(J$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A85,Data!$G$4:$L$17,6,0)</f>
-        <v>-14702.32</v>
+        <v>-14705.75</v>
       </c>
       <c r="K85">
         <f>-VLOOKUP(K$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A85,Data!$G$4:$L$17,6,0)</f>
-        <v>-13357.119999999999</v>
+        <v>-13356.75</v>
       </c>
       <c r="L85">
         <f>-VLOOKUP(L$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A85,Data!$G$4:$L$17,6,0)</f>
-        <v>8421.7599999999984</v>
+        <v>8423.6666666666697</v>
       </c>
       <c r="M85">
         <f>-VLOOKUP(M$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A85,Data!$G$4:$L$17,6,0)</f>
-        <v>375.92000000000007</v>
+        <v>376.58333333339942</v>
       </c>
       <c r="N85">
         <f>-VLOOKUP(N$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A85,Data!$G$4:$L$17,6,0)</f>
-        <v>-8510.4000000000015</v>
+        <v>-8508.8333333332994</v>
       </c>
       <c r="O85">
         <f>-VLOOKUP(O$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A85,Data!$G$4:$L$17,6,0)</f>
-        <v>12474.8</v>
+        <v>12474.41666666667</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
@@ -4954,11 +4954,11 @@
       </c>
       <c r="B86">
         <f>-VLOOKUP(B$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A86,Data!$G$4:$L$17,6,0)</f>
-        <v>2618.5600000000004</v>
+        <v>2619.8333333333298</v>
       </c>
       <c r="C86">
         <f>-VLOOKUP(C$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A86,Data!$G$4:$L$17,6,0)</f>
-        <v>-10978.16</v>
+        <v>-10977.16666666667</v>
       </c>
       <c r="D86">
         <f>-VLOOKUP(D$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A86,Data!$G$4:$L$17,6,0)</f>
@@ -4966,47 +4966,47 @@
       </c>
       <c r="E86">
         <f>-VLOOKUP(E$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A86,Data!$G$4:$L$17,6,0)</f>
-        <v>1794.3200000000002</v>
+        <v>1795.9999999999998</v>
       </c>
       <c r="F86">
         <f>-VLOOKUP(F$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A86,Data!$G$4:$L$17,6,0)</f>
-        <v>-4828.16</v>
+        <v>-4828.0833333333303</v>
       </c>
       <c r="G86">
         <f>-VLOOKUP(G$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A86,Data!$G$4:$L$17,6,0)</f>
-        <v>-23636.720000000001</v>
+        <v>-23635.58333333327</v>
       </c>
       <c r="H86">
         <f>-VLOOKUP(H$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A86,Data!$G$4:$L$17,6,0)</f>
-        <v>-44692.08</v>
+        <v>-44689.83333333327</v>
       </c>
       <c r="I86">
         <f>-VLOOKUP(I$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A86,Data!$G$4:$L$17,6,0)</f>
-        <v>-24885.84</v>
+        <v>-24884.416666666672</v>
       </c>
       <c r="J86">
         <f>-VLOOKUP(J$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A86,Data!$G$4:$L$17,6,0)</f>
-        <v>-25680.48</v>
+        <v>-25682.916666666672</v>
       </c>
       <c r="K86">
         <f>-VLOOKUP(K$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A86,Data!$G$4:$L$17,6,0)</f>
-        <v>-24335.279999999999</v>
+        <v>-24333.916666666672</v>
       </c>
       <c r="L86">
         <f>-VLOOKUP(L$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A86,Data!$G$4:$L$17,6,0)</f>
-        <v>-2556.4</v>
+        <v>-2553.5000000000005</v>
       </c>
       <c r="M86">
         <f>-VLOOKUP(M$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A86,Data!$G$4:$L$17,6,0)</f>
-        <v>-10602.24</v>
+        <v>-10600.58333333327</v>
       </c>
       <c r="N86">
         <f>-VLOOKUP(N$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A86,Data!$G$4:$L$17,6,0)</f>
-        <v>-19488.560000000001</v>
+        <v>-19485.999999999971</v>
       </c>
       <c r="O86">
         <f>-VLOOKUP(O$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A86,Data!$G$4:$L$17,6,0)</f>
-        <v>1496.64</v>
+        <v>1497.2499999999998</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -5015,15 +5015,15 @@
       </c>
       <c r="B87">
         <f>-VLOOKUP(B$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A87,Data!$G$4:$L$17,6,0)</f>
-        <v>824.24</v>
+        <v>823.83333333333007</v>
       </c>
       <c r="C87">
         <f>-VLOOKUP(C$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A87,Data!$G$4:$L$17,6,0)</f>
-        <v>-12772.48</v>
+        <v>-12773.16666666667</v>
       </c>
       <c r="D87">
         <f>-VLOOKUP(D$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A87,Data!$G$4:$L$17,6,0)</f>
-        <v>-1794.3200000000002</v>
+        <v>-1795.9999999999998</v>
       </c>
       <c r="E87">
         <f>-VLOOKUP(E$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A87,Data!$G$4:$L$17,6,0)</f>
@@ -5031,43 +5031,43 @@
       </c>
       <c r="F87">
         <f>-VLOOKUP(F$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A87,Data!$G$4:$L$17,6,0)</f>
-        <v>-6622.48</v>
+        <v>-6624.0833333333303</v>
       </c>
       <c r="G87">
         <f>-VLOOKUP(G$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A87,Data!$G$4:$L$17,6,0)</f>
-        <v>-25431.040000000001</v>
+        <v>-25431.58333333327</v>
       </c>
       <c r="H87">
         <f>-VLOOKUP(H$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A87,Data!$G$4:$L$17,6,0)</f>
-        <v>-46486.400000000001</v>
+        <v>-46485.83333333327</v>
       </c>
       <c r="I87">
         <f>-VLOOKUP(I$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A87,Data!$G$4:$L$17,6,0)</f>
-        <v>-26680.16</v>
+        <v>-26680.416666666672</v>
       </c>
       <c r="J87">
         <f>-VLOOKUP(J$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A87,Data!$G$4:$L$17,6,0)</f>
-        <v>-27474.799999999999</v>
+        <v>-27478.916666666672</v>
       </c>
       <c r="K87">
         <f>-VLOOKUP(K$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A87,Data!$G$4:$L$17,6,0)</f>
-        <v>-26129.599999999999</v>
+        <v>-26129.916666666672</v>
       </c>
       <c r="L87">
         <f>-VLOOKUP(L$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A87,Data!$G$4:$L$17,6,0)</f>
-        <v>-4350.72</v>
+        <v>-4349.5</v>
       </c>
       <c r="M87">
         <f>-VLOOKUP(M$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A87,Data!$G$4:$L$17,6,0)</f>
-        <v>-12396.56</v>
+        <v>-12396.58333333327</v>
       </c>
       <c r="N87">
         <f>-VLOOKUP(N$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A87,Data!$G$4:$L$17,6,0)</f>
-        <v>-21282.880000000001</v>
+        <v>-21281.999999999971</v>
       </c>
       <c r="O87">
         <f>-VLOOKUP(O$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A87,Data!$G$4:$L$17,6,0)</f>
-        <v>-297.68000000000006</v>
+        <v>-298.75</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -5076,19 +5076,19 @@
       </c>
       <c r="B88">
         <f>-VLOOKUP(B$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A88,Data!$G$4:$L$17,6,0)</f>
-        <v>7446.7199999999993</v>
+        <v>7447.9166666666606</v>
       </c>
       <c r="C88">
         <f>-VLOOKUP(C$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A88,Data!$G$4:$L$17,6,0)</f>
-        <v>-6150</v>
+        <v>-6149.0833333333394</v>
       </c>
       <c r="D88">
         <f>-VLOOKUP(D$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A88,Data!$G$4:$L$17,6,0)</f>
-        <v>4828.16</v>
+        <v>4828.0833333333303</v>
       </c>
       <c r="E88">
         <f>-VLOOKUP(E$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A88,Data!$G$4:$L$17,6,0)</f>
-        <v>6622.48</v>
+        <v>6624.0833333333303</v>
       </c>
       <c r="F88">
         <f>-VLOOKUP(F$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A88,Data!$G$4:$L$17,6,0)</f>
@@ -5096,39 +5096,39 @@
       </c>
       <c r="G88">
         <f>-VLOOKUP(G$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A88,Data!$G$4:$L$17,6,0)</f>
-        <v>-18808.560000000001</v>
+        <v>-18807.499999999938</v>
       </c>
       <c r="H88">
         <f>-VLOOKUP(H$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A88,Data!$G$4:$L$17,6,0)</f>
-        <v>-39863.919999999998</v>
+        <v>-39861.749999999942</v>
       </c>
       <c r="I88">
         <f>-VLOOKUP(I$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A88,Data!$G$4:$L$17,6,0)</f>
-        <v>-20057.68</v>
+        <v>-20056.333333333339</v>
       </c>
       <c r="J88">
         <f>-VLOOKUP(J$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A88,Data!$G$4:$L$17,6,0)</f>
-        <v>-20852.32</v>
+        <v>-20854.833333333339</v>
       </c>
       <c r="K88">
         <f>-VLOOKUP(K$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A88,Data!$G$4:$L$17,6,0)</f>
-        <v>-19507.12</v>
+        <v>-19505.833333333339</v>
       </c>
       <c r="L88">
         <f>-VLOOKUP(L$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A88,Data!$G$4:$L$17,6,0)</f>
-        <v>2271.7599999999993</v>
+        <v>2274.5833333333303</v>
       </c>
       <c r="M88">
         <f>-VLOOKUP(M$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A88,Data!$G$4:$L$17,6,0)</f>
-        <v>-5774.08</v>
+        <v>-5772.49999999994</v>
       </c>
       <c r="N88">
         <f>-VLOOKUP(N$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A88,Data!$G$4:$L$17,6,0)</f>
-        <v>-14660.400000000001</v>
+        <v>-14657.916666666639</v>
       </c>
       <c r="O88">
         <f>-VLOOKUP(O$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A88,Data!$G$4:$L$17,6,0)</f>
-        <v>6324.7999999999993</v>
+        <v>6325.3333333333303</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -5137,23 +5137,23 @@
       </c>
       <c r="B89">
         <f>-VLOOKUP(B$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A89,Data!$G$4:$L$17,6,0)</f>
-        <v>26255.280000000002</v>
+        <v>26255.416666666599</v>
       </c>
       <c r="C89">
         <f>-VLOOKUP(C$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A89,Data!$G$4:$L$17,6,0)</f>
-        <v>12658.560000000001</v>
+        <v>12658.416666666599</v>
       </c>
       <c r="D89">
         <f>-VLOOKUP(D$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A89,Data!$G$4:$L$17,6,0)</f>
-        <v>23636.720000000001</v>
+        <v>23635.58333333327</v>
       </c>
       <c r="E89">
         <f>-VLOOKUP(E$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A89,Data!$G$4:$L$17,6,0)</f>
-        <v>25431.040000000001</v>
+        <v>25431.58333333327</v>
       </c>
       <c r="F89">
         <f>-VLOOKUP(F$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A89,Data!$G$4:$L$17,6,0)</f>
-        <v>18808.560000000001</v>
+        <v>18807.499999999938</v>
       </c>
       <c r="G89">
         <f>-VLOOKUP(G$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A89,Data!$G$4:$L$17,6,0)</f>
@@ -5161,35 +5161,35 @@
       </c>
       <c r="H89">
         <f>-VLOOKUP(H$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A89,Data!$G$4:$L$17,6,0)</f>
-        <v>-21055.360000000001</v>
+        <v>-21054.25</v>
       </c>
       <c r="I89">
         <f>-VLOOKUP(I$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A89,Data!$G$4:$L$17,6,0)</f>
-        <v>-1249.119999999999</v>
+        <v>-1248.8333333334012</v>
       </c>
       <c r="J89">
         <f>-VLOOKUP(J$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A89,Data!$G$4:$L$17,6,0)</f>
-        <v>-2043.7599999999984</v>
+        <v>-2047.3333333334012</v>
       </c>
       <c r="K89">
         <f>-VLOOKUP(K$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A89,Data!$G$4:$L$17,6,0)</f>
-        <v>-698.55999999999767</v>
+        <v>-698.33333333340124</v>
       </c>
       <c r="L89">
         <f>-VLOOKUP(L$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A89,Data!$G$4:$L$17,6,0)</f>
-        <v>21080.32</v>
+        <v>21082.08333333327</v>
       </c>
       <c r="M89">
         <f>-VLOOKUP(M$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A89,Data!$G$4:$L$17,6,0)</f>
-        <v>13034.480000000001</v>
+        <v>13034.999999999998</v>
       </c>
       <c r="N89">
         <f>-VLOOKUP(N$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A89,Data!$G$4:$L$17,6,0)</f>
-        <v>4148.16</v>
+        <v>4149.5833333332994</v>
       </c>
       <c r="O89">
         <f>-VLOOKUP(O$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A89,Data!$G$4:$L$17,6,0)</f>
-        <v>25133.360000000001</v>
+        <v>25132.83333333327</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -5198,27 +5198,27 @@
       </c>
       <c r="B90">
         <f>-VLOOKUP(B$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A90,Data!$G$4:$L$17,6,0)</f>
-        <v>47310.64</v>
+        <v>47309.666666666599</v>
       </c>
       <c r="C90">
         <f>-VLOOKUP(C$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A90,Data!$G$4:$L$17,6,0)</f>
-        <v>33713.919999999998</v>
+        <v>33712.666666666599</v>
       </c>
       <c r="D90">
         <f>-VLOOKUP(D$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A90,Data!$G$4:$L$17,6,0)</f>
-        <v>44692.08</v>
+        <v>44689.83333333327</v>
       </c>
       <c r="E90">
         <f>-VLOOKUP(E$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A90,Data!$G$4:$L$17,6,0)</f>
-        <v>46486.400000000001</v>
+        <v>46485.83333333327</v>
       </c>
       <c r="F90">
         <f>-VLOOKUP(F$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A90,Data!$G$4:$L$17,6,0)</f>
-        <v>39863.919999999998</v>
+        <v>39861.749999999942</v>
       </c>
       <c r="G90">
         <f>-VLOOKUP(G$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A90,Data!$G$4:$L$17,6,0)</f>
-        <v>21055.360000000001</v>
+        <v>21054.25</v>
       </c>
       <c r="H90">
         <f>-VLOOKUP(H$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A90,Data!$G$4:$L$17,6,0)</f>
@@ -5226,31 +5226,31 @@
       </c>
       <c r="I90">
         <f>-VLOOKUP(I$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A90,Data!$G$4:$L$17,6,0)</f>
-        <v>19806.240000000002</v>
+        <v>19805.416666666599</v>
       </c>
       <c r="J90">
         <f>-VLOOKUP(J$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A90,Data!$G$4:$L$17,6,0)</f>
-        <v>19011.600000000002</v>
+        <v>19006.916666666599</v>
       </c>
       <c r="K90">
         <f>-VLOOKUP(K$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A90,Data!$G$4:$L$17,6,0)</f>
-        <v>20356.800000000003</v>
+        <v>20355.916666666599</v>
       </c>
       <c r="L90">
         <f>-VLOOKUP(L$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A90,Data!$G$4:$L$17,6,0)</f>
-        <v>42135.68</v>
+        <v>42136.33333333327</v>
       </c>
       <c r="M90">
         <f>-VLOOKUP(M$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A90,Data!$G$4:$L$17,6,0)</f>
-        <v>34089.840000000004</v>
+        <v>34089.25</v>
       </c>
       <c r="N90">
         <f>-VLOOKUP(N$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A90,Data!$G$4:$L$17,6,0)</f>
-        <v>25203.52</v>
+        <v>25203.833333333299</v>
       </c>
       <c r="O90">
         <f>-VLOOKUP(O$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A90,Data!$G$4:$L$17,6,0)</f>
-        <v>46188.72</v>
+        <v>46187.08333333327</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -5259,31 +5259,31 @@
       </c>
       <c r="B91">
         <f>-VLOOKUP(B$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A91,Data!$G$4:$L$17,6,0)</f>
-        <v>27504.400000000001</v>
+        <v>27504.25</v>
       </c>
       <c r="C91">
         <f>-VLOOKUP(C$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A91,Data!$G$4:$L$17,6,0)</f>
-        <v>13907.68</v>
+        <v>13907.25</v>
       </c>
       <c r="D91">
         <f>-VLOOKUP(D$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A91,Data!$G$4:$L$17,6,0)</f>
-        <v>24885.84</v>
+        <v>24884.416666666672</v>
       </c>
       <c r="E91">
         <f>-VLOOKUP(E$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A91,Data!$G$4:$L$17,6,0)</f>
-        <v>26680.16</v>
+        <v>26680.416666666672</v>
       </c>
       <c r="F91">
         <f>-VLOOKUP(F$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A91,Data!$G$4:$L$17,6,0)</f>
-        <v>20057.68</v>
+        <v>20056.333333333339</v>
       </c>
       <c r="G91">
         <f>-VLOOKUP(G$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A91,Data!$G$4:$L$17,6,0)</f>
-        <v>1249.119999999999</v>
+        <v>1248.8333333334012</v>
       </c>
       <c r="H91">
         <f>-VLOOKUP(H$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A91,Data!$G$4:$L$17,6,0)</f>
-        <v>-19806.240000000002</v>
+        <v>-19805.416666666599</v>
       </c>
       <c r="I91">
         <f>-VLOOKUP(I$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A91,Data!$G$4:$L$17,6,0)</f>
@@ -5291,27 +5291,27 @@
       </c>
       <c r="J91">
         <f>-VLOOKUP(J$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A91,Data!$G$4:$L$17,6,0)</f>
-        <v>-794.63999999999942</v>
+        <v>-798.5</v>
       </c>
       <c r="K91">
         <f>-VLOOKUP(K$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A91,Data!$G$4:$L$17,6,0)</f>
-        <v>550.56000000000131</v>
+        <v>550.5</v>
       </c>
       <c r="L91">
         <f>-VLOOKUP(L$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A91,Data!$G$4:$L$17,6,0)</f>
-        <v>22329.439999999999</v>
+        <v>22330.916666666672</v>
       </c>
       <c r="M91">
         <f>-VLOOKUP(M$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A91,Data!$G$4:$L$17,6,0)</f>
-        <v>14283.6</v>
+        <v>14283.833333333399</v>
       </c>
       <c r="N91">
         <f>-VLOOKUP(N$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A91,Data!$G$4:$L$17,6,0)</f>
-        <v>5397.2799999999988</v>
+        <v>5398.4166666667006</v>
       </c>
       <c r="O91">
         <f>-VLOOKUP(O$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A91,Data!$G$4:$L$17,6,0)</f>
-        <v>26382.48</v>
+        <v>26381.666666666672</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -5320,35 +5320,35 @@
       </c>
       <c r="B92">
         <f>-VLOOKUP(B$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A92,Data!$G$4:$L$17,6,0)</f>
-        <v>28299.040000000001</v>
+        <v>28302.75</v>
       </c>
       <c r="C92">
         <f>-VLOOKUP(C$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A92,Data!$G$4:$L$17,6,0)</f>
-        <v>14702.32</v>
+        <v>14705.75</v>
       </c>
       <c r="D92">
         <f>-VLOOKUP(D$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A92,Data!$G$4:$L$17,6,0)</f>
-        <v>25680.48</v>
+        <v>25682.916666666672</v>
       </c>
       <c r="E92">
         <f>-VLOOKUP(E$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A92,Data!$G$4:$L$17,6,0)</f>
-        <v>27474.799999999999</v>
+        <v>27478.916666666672</v>
       </c>
       <c r="F92">
         <f>-VLOOKUP(F$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A92,Data!$G$4:$L$17,6,0)</f>
-        <v>20852.32</v>
+        <v>20854.833333333339</v>
       </c>
       <c r="G92">
         <f>-VLOOKUP(G$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A92,Data!$G$4:$L$17,6,0)</f>
-        <v>2043.7599999999984</v>
+        <v>2047.3333333334012</v>
       </c>
       <c r="H92">
         <f>-VLOOKUP(H$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A92,Data!$G$4:$L$17,6,0)</f>
-        <v>-19011.600000000002</v>
+        <v>-19006.916666666599</v>
       </c>
       <c r="I92">
         <f>-VLOOKUP(I$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A92,Data!$G$4:$L$17,6,0)</f>
-        <v>794.63999999999942</v>
+        <v>798.5</v>
       </c>
       <c r="J92">
         <f>-VLOOKUP(J$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A92,Data!$G$4:$L$17,6,0)</f>
@@ -5356,23 +5356,23 @@
       </c>
       <c r="K92">
         <f>-VLOOKUP(K$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A92,Data!$G$4:$L$17,6,0)</f>
-        <v>1345.2000000000007</v>
+        <v>1349</v>
       </c>
       <c r="L92">
         <f>-VLOOKUP(L$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A92,Data!$G$4:$L$17,6,0)</f>
-        <v>23124.079999999998</v>
+        <v>23129.416666666672</v>
       </c>
       <c r="M92">
         <f>-VLOOKUP(M$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A92,Data!$G$4:$L$17,6,0)</f>
-        <v>15078.24</v>
+        <v>15082.333333333399</v>
       </c>
       <c r="N92">
         <f>-VLOOKUP(N$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A92,Data!$G$4:$L$17,6,0)</f>
-        <v>6191.9199999999983</v>
+        <v>6196.9166666667006</v>
       </c>
       <c r="O92">
         <f>-VLOOKUP(O$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A92,Data!$G$4:$L$17,6,0)</f>
-        <v>27177.119999999999</v>
+        <v>27180.166666666672</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -5381,39 +5381,39 @@
       </c>
       <c r="B93">
         <f>-VLOOKUP(B$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A93,Data!$G$4:$L$17,6,0)</f>
-        <v>26953.84</v>
+        <v>26953.75</v>
       </c>
       <c r="C93">
         <f>-VLOOKUP(C$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A93,Data!$G$4:$L$17,6,0)</f>
-        <v>13357.119999999999</v>
+        <v>13356.75</v>
       </c>
       <c r="D93">
         <f>-VLOOKUP(D$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A93,Data!$G$4:$L$17,6,0)</f>
-        <v>24335.279999999999</v>
+        <v>24333.916666666672</v>
       </c>
       <c r="E93">
         <f>-VLOOKUP(E$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A93,Data!$G$4:$L$17,6,0)</f>
-        <v>26129.599999999999</v>
+        <v>26129.916666666672</v>
       </c>
       <c r="F93">
         <f>-VLOOKUP(F$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A93,Data!$G$4:$L$17,6,0)</f>
-        <v>19507.12</v>
+        <v>19505.833333333339</v>
       </c>
       <c r="G93">
         <f>-VLOOKUP(G$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A93,Data!$G$4:$L$17,6,0)</f>
-        <v>698.55999999999767</v>
+        <v>698.33333333340124</v>
       </c>
       <c r="H93">
         <f>-VLOOKUP(H$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A93,Data!$G$4:$L$17,6,0)</f>
-        <v>-20356.800000000003</v>
+        <v>-20355.916666666599</v>
       </c>
       <c r="I93">
         <f>-VLOOKUP(I$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A93,Data!$G$4:$L$17,6,0)</f>
-        <v>-550.56000000000131</v>
+        <v>-550.5</v>
       </c>
       <c r="J93">
         <f>-VLOOKUP(J$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A93,Data!$G$4:$L$17,6,0)</f>
-        <v>-1345.2000000000007</v>
+        <v>-1349</v>
       </c>
       <c r="K93">
         <f>-VLOOKUP(K$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A93,Data!$G$4:$L$17,6,0)</f>
@@ -5421,19 +5421,19 @@
       </c>
       <c r="L93">
         <f>-VLOOKUP(L$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A93,Data!$G$4:$L$17,6,0)</f>
-        <v>21778.879999999997</v>
+        <v>21780.416666666672</v>
       </c>
       <c r="M93">
         <f>-VLOOKUP(M$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A93,Data!$G$4:$L$17,6,0)</f>
-        <v>13733.039999999999</v>
+        <v>13733.333333333399</v>
       </c>
       <c r="N93">
         <f>-VLOOKUP(N$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A93,Data!$G$4:$L$17,6,0)</f>
-        <v>4846.7199999999975</v>
+        <v>4847.9166666667006</v>
       </c>
       <c r="O93">
         <f>-VLOOKUP(O$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A93,Data!$G$4:$L$17,6,0)</f>
-        <v>25831.919999999998</v>
+        <v>25831.166666666672</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -5442,43 +5442,43 @@
       </c>
       <c r="B94">
         <f>-VLOOKUP(B$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A94,Data!$G$4:$L$17,6,0)</f>
-        <v>5174.96</v>
+        <v>5173.3333333333303</v>
       </c>
       <c r="C94">
         <f>-VLOOKUP(C$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A94,Data!$G$4:$L$17,6,0)</f>
-        <v>-8421.7599999999984</v>
+        <v>-8423.6666666666697</v>
       </c>
       <c r="D94">
         <f>-VLOOKUP(D$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A94,Data!$G$4:$L$17,6,0)</f>
-        <v>2556.4</v>
+        <v>2553.5000000000005</v>
       </c>
       <c r="E94">
         <f>-VLOOKUP(E$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A94,Data!$G$4:$L$17,6,0)</f>
-        <v>4350.72</v>
+        <v>4349.5</v>
       </c>
       <c r="F94">
         <f>-VLOOKUP(F$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A94,Data!$G$4:$L$17,6,0)</f>
-        <v>-2271.7599999999993</v>
+        <v>-2274.5833333333303</v>
       </c>
       <c r="G94">
         <f>-VLOOKUP(G$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A94,Data!$G$4:$L$17,6,0)</f>
-        <v>-21080.32</v>
+        <v>-21082.08333333327</v>
       </c>
       <c r="H94">
         <f>-VLOOKUP(H$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A94,Data!$G$4:$L$17,6,0)</f>
-        <v>-42135.68</v>
+        <v>-42136.33333333327</v>
       </c>
       <c r="I94">
         <f>-VLOOKUP(I$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A94,Data!$G$4:$L$17,6,0)</f>
-        <v>-22329.439999999999</v>
+        <v>-22330.916666666672</v>
       </c>
       <c r="J94">
         <f>-VLOOKUP(J$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A94,Data!$G$4:$L$17,6,0)</f>
-        <v>-23124.079999999998</v>
+        <v>-23129.416666666672</v>
       </c>
       <c r="K94">
         <f>-VLOOKUP(K$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A94,Data!$G$4:$L$17,6,0)</f>
-        <v>-21778.879999999997</v>
+        <v>-21780.416666666672</v>
       </c>
       <c r="L94">
         <f>-VLOOKUP(L$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A94,Data!$G$4:$L$17,6,0)</f>
@@ -5486,15 +5486,15 @@
       </c>
       <c r="M94">
         <f>-VLOOKUP(M$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A94,Data!$G$4:$L$17,6,0)</f>
-        <v>-8045.8399999999992</v>
+        <v>-8047.0833333332703</v>
       </c>
       <c r="N94">
         <f>-VLOOKUP(N$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A94,Data!$G$4:$L$17,6,0)</f>
-        <v>-16932.16</v>
+        <v>-16932.499999999971</v>
       </c>
       <c r="O94">
         <f>-VLOOKUP(O$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A94,Data!$G$4:$L$17,6,0)</f>
-        <v>4053.04</v>
+        <v>4050.75</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -5503,47 +5503,47 @@
       </c>
       <c r="B95">
         <f>-VLOOKUP(B$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A95,Data!$G$4:$L$17,6,0)</f>
-        <v>13220.8</v>
+        <v>13220.416666666601</v>
       </c>
       <c r="C95">
         <f>-VLOOKUP(C$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A95,Data!$G$4:$L$17,6,0)</f>
-        <v>-375.92000000000007</v>
+        <v>-376.58333333339942</v>
       </c>
       <c r="D95">
         <f>-VLOOKUP(D$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A95,Data!$G$4:$L$17,6,0)</f>
-        <v>10602.24</v>
+        <v>10600.58333333327</v>
       </c>
       <c r="E95">
         <f>-VLOOKUP(E$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A95,Data!$G$4:$L$17,6,0)</f>
-        <v>12396.56</v>
+        <v>12396.58333333327</v>
       </c>
       <c r="F95">
         <f>-VLOOKUP(F$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A95,Data!$G$4:$L$17,6,0)</f>
-        <v>5774.08</v>
+        <v>5772.49999999994</v>
       </c>
       <c r="G95">
         <f>-VLOOKUP(G$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A95,Data!$G$4:$L$17,6,0)</f>
-        <v>-13034.480000000001</v>
+        <v>-13034.999999999998</v>
       </c>
       <c r="H95">
         <f>-VLOOKUP(H$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A95,Data!$G$4:$L$17,6,0)</f>
-        <v>-34089.840000000004</v>
+        <v>-34089.25</v>
       </c>
       <c r="I95">
         <f>-VLOOKUP(I$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A95,Data!$G$4:$L$17,6,0)</f>
-        <v>-14283.6</v>
+        <v>-14283.833333333399</v>
       </c>
       <c r="J95">
         <f>-VLOOKUP(J$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A95,Data!$G$4:$L$17,6,0)</f>
-        <v>-15078.24</v>
+        <v>-15082.333333333399</v>
       </c>
       <c r="K95">
         <f>-VLOOKUP(K$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A95,Data!$G$4:$L$17,6,0)</f>
-        <v>-13733.039999999999</v>
+        <v>-13733.333333333399</v>
       </c>
       <c r="L95">
         <f>-VLOOKUP(L$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A95,Data!$G$4:$L$17,6,0)</f>
-        <v>8045.8399999999992</v>
+        <v>8047.0833333332703</v>
       </c>
       <c r="M95">
         <f>-VLOOKUP(M$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A95,Data!$G$4:$L$17,6,0)</f>
@@ -5551,11 +5551,11 @@
       </c>
       <c r="N95">
         <f>-VLOOKUP(N$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A95,Data!$G$4:$L$17,6,0)</f>
-        <v>-8886.3200000000015</v>
+        <v>-8885.4166666666988</v>
       </c>
       <c r="O95">
         <f>-VLOOKUP(O$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A95,Data!$G$4:$L$17,6,0)</f>
-        <v>12098.88</v>
+        <v>12097.83333333327</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -5564,51 +5564,51 @@
       </c>
       <c r="B96">
         <f>-VLOOKUP(B$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A96,Data!$G$4:$L$17,6,0)</f>
-        <v>22107.120000000003</v>
+        <v>22105.833333333299</v>
       </c>
       <c r="C96">
         <f>-VLOOKUP(C$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A96,Data!$G$4:$L$17,6,0)</f>
-        <v>8510.4000000000015</v>
+        <v>8508.8333333332994</v>
       </c>
       <c r="D96">
         <f>-VLOOKUP(D$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A96,Data!$G$4:$L$17,6,0)</f>
-        <v>19488.560000000001</v>
+        <v>19485.999999999971</v>
       </c>
       <c r="E96">
         <f>-VLOOKUP(E$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A96,Data!$G$4:$L$17,6,0)</f>
-        <v>21282.880000000001</v>
+        <v>21281.999999999971</v>
       </c>
       <c r="F96">
         <f>-VLOOKUP(F$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A96,Data!$G$4:$L$17,6,0)</f>
-        <v>14660.400000000001</v>
+        <v>14657.916666666639</v>
       </c>
       <c r="G96">
         <f>-VLOOKUP(G$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A96,Data!$G$4:$L$17,6,0)</f>
-        <v>-4148.16</v>
+        <v>-4149.5833333332994</v>
       </c>
       <c r="H96">
         <f>-VLOOKUP(H$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A96,Data!$G$4:$L$17,6,0)</f>
-        <v>-25203.52</v>
+        <v>-25203.833333333299</v>
       </c>
       <c r="I96">
         <f>-VLOOKUP(I$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A96,Data!$G$4:$L$17,6,0)</f>
-        <v>-5397.2799999999988</v>
+        <v>-5398.4166666667006</v>
       </c>
       <c r="J96">
         <f>-VLOOKUP(J$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A96,Data!$G$4:$L$17,6,0)</f>
-        <v>-6191.9199999999983</v>
+        <v>-6196.9166666667006</v>
       </c>
       <c r="K96">
         <f>-VLOOKUP(K$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A96,Data!$G$4:$L$17,6,0)</f>
-        <v>-4846.7199999999975</v>
+        <v>-4847.9166666667006</v>
       </c>
       <c r="L96">
         <f>-VLOOKUP(L$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A96,Data!$G$4:$L$17,6,0)</f>
-        <v>16932.16</v>
+        <v>16932.499999999971</v>
       </c>
       <c r="M96">
         <f>-VLOOKUP(M$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A96,Data!$G$4:$L$17,6,0)</f>
-        <v>8886.3200000000015</v>
+        <v>8885.4166666666988</v>
       </c>
       <c r="N96">
         <f>-VLOOKUP(N$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A96,Data!$G$4:$L$17,6,0)</f>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="O96">
         <f>-VLOOKUP(O$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A96,Data!$G$4:$L$17,6,0)</f>
-        <v>20985.200000000001</v>
+        <v>20983.249999999971</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -5625,55 +5625,55 @@
       </c>
       <c r="B97">
         <f>-VLOOKUP(B$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A97,Data!$G$4:$L$17,6,0)</f>
-        <v>1121.92</v>
+        <v>1122.5833333333301</v>
       </c>
       <c r="C97">
         <f>-VLOOKUP(C$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A97,Data!$G$4:$L$17,6,0)</f>
-        <v>-12474.8</v>
+        <v>-12474.41666666667</v>
       </c>
       <c r="D97">
         <f>-VLOOKUP(D$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A97,Data!$G$4:$L$17,6,0)</f>
-        <v>-1496.64</v>
+        <v>-1497.2499999999998</v>
       </c>
       <c r="E97">
         <f>-VLOOKUP(E$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A97,Data!$G$4:$L$17,6,0)</f>
-        <v>297.68000000000006</v>
+        <v>298.75</v>
       </c>
       <c r="F97">
         <f>-VLOOKUP(F$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A97,Data!$G$4:$L$17,6,0)</f>
-        <v>-6324.7999999999993</v>
+        <v>-6325.3333333333303</v>
       </c>
       <c r="G97">
         <f>-VLOOKUP(G$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A97,Data!$G$4:$L$17,6,0)</f>
-        <v>-25133.360000000001</v>
+        <v>-25132.83333333327</v>
       </c>
       <c r="H97">
         <f>-VLOOKUP(H$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A97,Data!$G$4:$L$17,6,0)</f>
-        <v>-46188.72</v>
+        <v>-46187.08333333327</v>
       </c>
       <c r="I97">
         <f>-VLOOKUP(I$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A97,Data!$G$4:$L$17,6,0)</f>
-        <v>-26382.48</v>
+        <v>-26381.666666666672</v>
       </c>
       <c r="J97">
         <f>-VLOOKUP(J$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A97,Data!$G$4:$L$17,6,0)</f>
-        <v>-27177.119999999999</v>
+        <v>-27180.166666666672</v>
       </c>
       <c r="K97">
         <f>-VLOOKUP(K$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A97,Data!$G$4:$L$17,6,0)</f>
-        <v>-25831.919999999998</v>
+        <v>-25831.166666666672</v>
       </c>
       <c r="L97">
         <f>-VLOOKUP(L$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A97,Data!$G$4:$L$17,6,0)</f>
-        <v>-4053.04</v>
+        <v>-4050.75</v>
       </c>
       <c r="M97">
         <f>-VLOOKUP(M$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A97,Data!$G$4:$L$17,6,0)</f>
-        <v>-12098.88</v>
+        <v>-12097.83333333327</v>
       </c>
       <c r="N97">
         <f>-VLOOKUP(N$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A97,Data!$G$4:$L$17,6,0)</f>
-        <v>-20985.200000000001</v>
+        <v>-20983.249999999971</v>
       </c>
       <c r="O97">
         <f>-VLOOKUP(O$83,Data!$G$4:$L$17,6,0) + VLOOKUP($A97,Data!$G$4:$L$17,6,0)</f>
@@ -5697,8 +5697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:AF161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42:AE42"/>
+    <sheetView tabSelected="1" topLeftCell="O13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB43" sqref="AB43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6932,7 +6932,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3">
         <f t="shared" si="8"/>
-        <v>0.60000000000000009</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="9"/>
@@ -6990,9 +6990,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="Y33" s="3" t="str">
+      <c r="Y33" s="3">
         <f t="shared" si="22"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Z33" s="3">
         <f t="shared" si="23"/>
@@ -8781,7 +8781,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3">
         <f t="shared" si="56"/>
-        <v>0.60000000000000009</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="56"/>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="M53" s="3">
         <f t="shared" si="56"/>
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="N53" s="3">
         <f t="shared" si="56"/>
@@ -8839,9 +8839,9 @@
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="Y53" s="3" t="str">
+      <c r="Y53" s="3">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.89999999999999991</v>
       </c>
       <c r="Z53" s="3">
         <f t="shared" si="42"/>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="F56" s="3">
         <f t="shared" si="62"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="62"/>
@@ -14171,7 +14171,7 @@
       </c>
       <c r="H113">
         <f>IF('Intermediate+'!H49&lt;=$D$4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <f>IF('Intermediate+'!I49&lt;=$D$4,1,0)</f>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="M113">
         <f>IF('Intermediate+'!M49&lt;=$D$4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113">
         <f>IF('Intermediate+'!N49&lt;=$D$4,1,0)</f>
@@ -14462,7 +14462,7 @@
       </c>
       <c r="W115">
         <f>IF('Intermediate+'!F51&gt;=$D$5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X115">
         <f>IF('Intermediate+'!G51&gt;=$D$5,1,0)</f>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="F136">
         <f>IF('Intermediate+'!F72&lt;=$E$4,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136">
         <f>IF('Intermediate+'!G72&lt;=$E$4,1,0)</f>
